--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -1208,7 +1208,7 @@
         <v>501</v>
       </c>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1294,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1362,10 +1362,10 @@
         <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
@@ -1423,16 +1423,16 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
         <v>2.5</v>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
         <v>1.57</v>
@@ -1458,7 +1458,7 @@
         <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1568,16 +1568,16 @@
         <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
         <v>2.6</v>
@@ -1595,7 +1595,7 @@
         <v>5.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
         <v>1.57</v>
@@ -1607,7 +1607,7 @@
         <v>2.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA8" t="n">
         <v>7</v>
@@ -1717,13 +1717,13 @@
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
         <v>2.25</v>
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
         <v>1.67</v>
@@ -1752,7 +1752,7 @@
         <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
         <v>4.75</v>
@@ -1843,60 +1843,60 @@
         <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L10" t="n">
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V10" t="n">
         <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="Z10" t="n">
         <v>1.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -1908,13 +1908,13 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -1923,7 +1923,7 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="n">
         <v>101</v>
@@ -1999,13 +1999,13 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2023,10 +2023,10 @@
         <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
         <v>1.29</v>
@@ -2035,7 +2035,7 @@
         <v>3.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z11" t="n">
         <v>2</v>
@@ -2315,7 +2315,7 @@
         <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X13" t="n">
         <v>3.5</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
         <v>3.75</v>
@@ -2456,10 +2456,10 @@
         <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y14" t="n">
         <v>2</v>
@@ -2468,22 +2468,22 @@
         <v>1.73</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
         <v>11</v>
       </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
       <c r="AD14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE14" t="n">
         <v>23</v>
       </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
@@ -2492,7 +2492,7 @@
         <v>5.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2504,16 +2504,16 @@
         <v>8</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
         <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -2566,7 +2566,7 @@
         <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -2593,7 +2593,7 @@
         <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="T15" t="n">
         <v>1.52</v>
@@ -2605,7 +2605,7 @@
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
         <v>2.75</v>
@@ -2903,7 +2903,7 @@
         <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
         <v>2.25</v>
@@ -3048,10 +3048,10 @@
         <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y18" t="n">
         <v>1.83</v>
@@ -3475,7 +3475,7 @@
         <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
         <v>3.5</v>
@@ -3596,27 +3596,27 @@
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
         <v>2.75</v>
@@ -3731,16 +3731,16 @@
         <v>4.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
         <v>2.38</v>
@@ -3754,7 +3754,7 @@
         <v>4.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
         <v>1.53</v>
@@ -3820,10 +3820,10 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="24">
@@ -3858,66 +3858,66 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
@@ -3926,19 +3926,19 @@
         <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
         <v>5.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>81</v>
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
         <v>13</v>
@@ -3962,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
         <v>2.1</v>
@@ -4021,13 +4021,13 @@
         <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -4144,13 +4144,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -4159,16 +4159,16 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
         <v>7.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
         <v>2.75</v>
@@ -4185,7 +4185,7 @@
         <v>4.33</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
         <v>1.5</v>
@@ -4200,19 +4200,19 @@
         <v>1.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -4245,7 +4245,7 @@
         <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>34</v>
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
         <v>2.88</v>
@@ -4303,13 +4303,13 @@
         <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
         <v>4.33</v>
@@ -4323,22 +4323,22 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V27" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA27" t="n">
         <v>11</v>
@@ -4350,22 +4350,22 @@
         <v>9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
@@ -4377,7 +4377,7 @@
         <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN27" t="n">
         <v>12</v>
@@ -4570,25 +4570,25 @@
         <v>3.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J29" t="n">
         <v>4.33</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -4597,33 +4597,33 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB29" t="n">
         <v>19</v>
@@ -4641,7 +4641,7 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -4653,10 +4653,10 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM29" t="n">
         <v>9.5</v>
@@ -4671,7 +4671,7 @@
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4856,7 +4856,7 @@
         <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
         <v>4.75</v>
@@ -4865,7 +4865,7 @@
         <v>2.3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
@@ -4877,24 +4877,24 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R31" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W31" t="n">
         <v>1.36</v>
@@ -4903,10 +4903,10 @@
         <v>3</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
         <v>7.5</v>
@@ -4930,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -4942,10 +4942,10 @@
         <v>201</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN31" t="n">
         <v>15</v>
@@ -4954,7 +4954,7 @@
         <v>51</v>
       </c>
       <c r="AP31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -4994,16 +4994,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
@@ -5053,13 +5053,13 @@
         <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
         <v>21</v>
@@ -5089,13 +5089,13 @@
         <v>13</v>
       </c>
       <c r="AN32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ32" t="n">
         <v>29</v>
@@ -5300,28 +5300,28 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S34" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W34" t="n">
         <v>1.3</v>
@@ -5836,28 +5836,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
         <v>2.9</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K38" t="n">
         <v>1.91</v>
       </c>
       <c r="L38" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.5</v>
@@ -5880,10 +5880,10 @@
         <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
         <v>2.2</v>
@@ -5892,16 +5892,16 @@
         <v>1.62</v>
       </c>
       <c r="AA38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC38" t="n">
         <v>13</v>
       </c>
-      <c r="AC38" t="n">
-        <v>12</v>
-      </c>
       <c r="AD38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="n">
         <v>34</v>
@@ -5916,7 +5916,7 @@
         <v>6</v>
       </c>
       <c r="AI38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="n">
         <v>81</v>
@@ -5928,13 +5928,13 @@
         <v>6</v>
       </c>
       <c r="AM38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN38" t="n">
         <v>10</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP38" t="n">
         <v>23</v>
@@ -6475,22 +6475,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="K43" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="L43" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -6517,16 +6517,16 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AA43" t="n">
         <v>5.8</v>
       </c>
       <c r="AB43" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC43" t="n">
         <v>6.8</v>
@@ -6538,10 +6538,10 @@
         <v>12</v>
       </c>
       <c r="AF43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH43" t="n">
         <v>5.6</v>
@@ -6556,22 +6556,22 @@
         <v>101</v>
       </c>
       <c r="AL43" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AM43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN43" t="n">
         <v>11</v>
       </c>
       <c r="AO43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP43" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ43" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6608,22 +6608,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J44" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="K44" t="n">
         <v>2.18</v>
       </c>
       <c r="L44" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -6631,10 +6631,10 @@
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R44" t="n">
         <v>1.72</v>
@@ -6657,31 +6657,31 @@
         <v>1.78</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AA44" t="n">
         <v>6.9</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC44" t="n">
         <v>8.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI44" t="n">
         <v>15.5</v>
@@ -6693,13 +6693,13 @@
         <v>600</v>
       </c>
       <c r="AL44" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM44" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO44" t="n">
         <v>55</v>
@@ -6708,7 +6708,7 @@
         <v>35</v>
       </c>
       <c r="AQ44" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6745,44 +6745,44 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="J45" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="K45" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="L45" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="V45" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W45" t="n">
         <v>1.39</v>
@@ -6791,61 +6791,61 @@
         <v>2.55</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG45" t="n">
         <v>10.75</v>
       </c>
-      <c r="AE45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AH45" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO45" t="n">
         <v>90</v>
       </c>
-      <c r="AK45" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>110</v>
-      </c>
       <c r="AP45" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ45" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -6882,34 +6882,34 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H46" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P46" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q46" t="n">
         <v>2.7</v>
@@ -6920,46 +6920,46 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W46" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y46" t="n">
         <v>2.2</v>
       </c>
-      <c r="Y46" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Z46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA46" t="n">
         <v>5.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC46" t="n">
         <v>10</v>
       </c>
       <c r="AD46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE46" t="n">
         <v>21</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>23</v>
       </c>
       <c r="AF46" t="n">
         <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI46" t="n">
         <v>21</v>
@@ -6971,10 +6971,10 @@
         <v>101</v>
       </c>
       <c r="AL46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN46" t="n">
         <v>13</v>
@@ -6983,7 +6983,7 @@
         <v>41</v>
       </c>
       <c r="AP46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ46" t="n">
         <v>51</v>
@@ -7027,22 +7027,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H47" t="n">
         <v>2.9</v>
       </c>
       <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.1</v>
       </c>
       <c r="K47" t="n">
         <v>1.83</v>
       </c>
       <c r="L47" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M47" t="n">
         <v>1.13</v>
@@ -7071,31 +7071,31 @@
         <v>1.13</v>
       </c>
       <c r="W47" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X47" t="n">
         <v>2.2</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA47" t="n">
         <v>5.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF47" t="n">
         <v>41</v>
@@ -7119,16 +7119,16 @@
         <v>7</v>
       </c>
       <c r="AM47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN47" t="n">
         <v>13</v>
       </c>
       <c r="AO47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
@@ -7216,7 +7216,7 @@
         <v>1.5</v>
       </c>
       <c r="W48" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X48" t="n">
         <v>3.4</v>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H49" t="n">
         <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
@@ -7357,7 +7357,7 @@
         <v>1.36</v>
       </c>
       <c r="W49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X49" t="n">
         <v>3</v>
@@ -7369,13 +7369,13 @@
         <v>2.1</v>
       </c>
       <c r="AA49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB49" t="n">
         <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD49" t="n">
         <v>23</v>
@@ -7399,13 +7399,13 @@
         <v>41</v>
       </c>
       <c r="AK49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL49" t="n">
         <v>9.5</v>
       </c>
       <c r="AM49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN49" t="n">
         <v>10</v>
@@ -7417,7 +7417,7 @@
         <v>21</v>
       </c>
       <c r="AQ49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7502,7 +7502,7 @@
         <v>1.67</v>
       </c>
       <c r="W50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X50" t="n">
         <v>3.75</v>
@@ -7647,7 +7647,7 @@
         <v>1.62</v>
       </c>
       <c r="W51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X51" t="n">
         <v>3.75</v>
@@ -7798,7 +7798,7 @@
         <v>3.4</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z52" t="n">
         <v>2.25</v>
@@ -7889,90 +7889,90 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
         <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="J53" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="K53" t="n">
         <v>2.05</v>
       </c>
       <c r="L53" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P53" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q53" t="n">
         <v>2.25</v>
       </c>
       <c r="R53" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V53" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W53" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X53" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AB53" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF53" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG53" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI53" t="n">
         <v>19</v>
       </c>
       <c r="AJ53" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AK53" t="n">
         <v>1250</v>
@@ -7981,19 +7981,19 @@
         <v>10</v>
       </c>
       <c r="AM53" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AN53" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO53" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AP53" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AQ53" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8083,7 +8083,7 @@
         <v>2.1</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA54" t="n">
         <v>6.5</v>
@@ -8229,10 +8229,10 @@
         <v>2.75</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA55" t="n">
         <v>6.5</v>
@@ -8378,7 +8378,7 @@
         <v>2.75</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z56" t="n">
         <v>2</v>
@@ -8523,10 +8523,10 @@
         <v>2.63</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA57" t="n">
         <v>6.5</v>
@@ -8614,13 +8614,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
         <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J58" t="n">
         <v>3</v>
@@ -8773,22 +8773,22 @@
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -8829,7 +8829,7 @@
         <v>67</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH59" t="n">
         <v>8</v>
@@ -8856,7 +8856,7 @@
         <v>9</v>
       </c>
       <c r="AP59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ59" t="n">
         <v>34</v>
@@ -8914,10 +8914,10 @@
         <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O60" t="n">
         <v>1.22</v>
@@ -8926,10 +8926,10 @@
         <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R60" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9037,13 +9037,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J61" t="n">
         <v>3.6</v>
@@ -9129,16 +9129,16 @@
         <v>7.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN61" t="n">
         <v>10</v>
       </c>
       <c r="AO61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP61" t="n">
         <v>23</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>21</v>
       </c>
       <c r="AQ61" t="n">
         <v>34</v>
@@ -9319,22 +9319,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K63" t="n">
         <v>2.3</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -9355,16 +9355,16 @@
         <v>2.3</v>
       </c>
       <c r="S63" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T63" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U63" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V63" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W63" t="n">
         <v>1.3</v>
@@ -9373,25 +9373,25 @@
         <v>3.4</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
         <v>9</v>
       </c>
       <c r="AD63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE63" t="n">
         <v>15</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>13</v>
       </c>
       <c r="AF63" t="n">
         <v>21</v>
@@ -9403,10 +9403,10 @@
         <v>7.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK63" t="n">
         <v>126</v>
@@ -9415,19 +9415,19 @@
         <v>15</v>
       </c>
       <c r="AM63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO63" t="n">
         <v>41</v>
       </c>
       <c r="AP63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ63" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>34</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9485,7 +9485,7 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="O64" t="n">
         <v>1.07</v>
@@ -9891,22 +9891,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H67" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="K67" t="n">
         <v>2.22</v>
       </c>
       <c r="L67" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -9950,13 +9950,13 @@
         <v>11</v>
       </c>
       <c r="AB67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC67" t="n">
         <v>8.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE67" t="n">
         <v>15</v>
@@ -9968,10 +9968,10 @@
         <v>8.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI67" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ67" t="n">
         <v>37</v>
@@ -9995,7 +9995,7 @@
         <v>24</v>
       </c>
       <c r="AQ67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10179,7 +10179,7 @@
         <v>3.7</v>
       </c>
       <c r="I69" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="J69" t="n">
         <v>4.5</v>
@@ -10221,7 +10221,7 @@
         <v>1.44</v>
       </c>
       <c r="W69" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X69" t="n">
         <v>3.25</v>
@@ -10318,84 +10318,84 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I70" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J70" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="K70" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L70" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M70" t="n">
         <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O70" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P70" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R70" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W70" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X70" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB70" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC70" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG70" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD70" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AH70" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AI70" t="n">
         <v>12</v>
@@ -10407,19 +10407,19 @@
         <v>250</v>
       </c>
       <c r="AL70" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN70" t="n">
         <v>12</v>
       </c>
-      <c r="AM70" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AO70" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP70" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ70" t="n">
         <v>29</v>
@@ -10459,111 +10459,111 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I71" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="K71" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L71" t="n">
         <v>3.65</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P71" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R71" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X71" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB71" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
         <v>8.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE71" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG71" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AH71" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI71" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK71" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL71" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AM71" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN71" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10744,10 +10744,10 @@
         <v>2.35</v>
       </c>
       <c r="H73" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>3.4</v>
@@ -10756,13 +10756,13 @@
         <v>1.83</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M73" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N73" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O73" t="n">
         <v>1.62</v>
@@ -10779,25 +10779,25 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W73" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB73" t="n">
         <v>10</v>
@@ -10815,16 +10815,16 @@
         <v>41</v>
       </c>
       <c r="AG73" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH73" t="n">
         <v>6.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ73" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="n">
         <v>101</v>
@@ -10836,7 +10836,7 @@
         <v>13</v>
       </c>
       <c r="AN73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO73" t="n">
         <v>34</v>
@@ -10845,7 +10845,7 @@
         <v>34</v>
       </c>
       <c r="AQ73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR73" t="n">
         <v>2.05</v>
@@ -10930,10 +10930,10 @@
         <v>1.22</v>
       </c>
       <c r="W74" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X74" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y74" t="n">
         <v>1.83</v>
@@ -11027,22 +11027,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J75" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="K75" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L75" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -11050,13 +11050,13 @@
         <v>1.34</v>
       </c>
       <c r="P75" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -11064,7 +11064,7 @@
         <v>3.25</v>
       </c>
       <c r="V75" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W75" t="n">
         <v>1.4</v>
@@ -11079,25 +11079,25 @@
         <v>1.88</v>
       </c>
       <c r="AA75" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC75" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF75" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG75" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH75" t="n">
         <v>5.8</v>
@@ -11112,22 +11112,22 @@
         <v>500</v>
       </c>
       <c r="AL75" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM75" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN75" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP75" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ75" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -728,10 +728,10 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T2" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
         <v>2.3</v>
@@ -837,19 +837,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
@@ -911,10 +911,10 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -926,7 +926,7 @@
         <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1169,16 +1169,16 @@
         <v>2.38</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA5" t="n">
         <v>5.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
@@ -1199,16 +1199,16 @@
         <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
         <v>501</v>
       </c>
       <c r="AL5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1226,10 +1226,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -1294,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1435,10 +1435,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1479,7 +1479,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
         <v>6.5</v>
@@ -1503,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>
@@ -1512,10 +1512,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1565,13 +1565,13 @@
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1598,10 +1598,10 @@
         <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y8" t="n">
         <v>2.2</v>
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1861,7 +1861,7 @@
         <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.67</v>
@@ -1884,10 +1884,10 @@
         <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y10" t="n">
         <v>2.5</v>
@@ -1981,13 +1981,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
         <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>1.95</v>
@@ -2017,16 +2017,16 @@
         <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>1.29</v>
@@ -2041,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="n">
         <v>8</v>
@@ -2050,7 +2050,7 @@
         <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
@@ -2059,13 +2059,13 @@
         <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2126,19 +2126,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>2.3</v>
@@ -2170,10 +2170,10 @@
         <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
         <v>1.8</v>
@@ -2206,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>51</v>
@@ -2215,7 +2215,7 @@
         <v>251</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
@@ -2288,31 +2288,31 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>1.29</v>
@@ -2327,13 +2327,13 @@
         <v>2.25</v>
       </c>
       <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>41</v>
@@ -2342,7 +2342,7 @@
         <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2486,13 +2486,13 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH14" t="n">
         <v>5.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2501,7 +2501,7 @@
         <v>351</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
@@ -2513,7 +2513,7 @@
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2596,7 +2596,7 @@
         <v>2.47</v>
       </c>
       <c r="T15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U15" t="n">
         <v>3.25</v>
@@ -2611,25 +2611,25 @@
         <v>2.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="n">
         <v>17</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
@@ -2638,31 +2638,31 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN15" t="n">
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>34</v>
@@ -3004,22 +3004,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3028,16 +3028,16 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3060,7 +3060,7 @@
         <v>1.83</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -3069,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3078,7 +3078,7 @@
         <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
@@ -3090,7 +3090,7 @@
         <v>51</v>
       </c>
       <c r="AK18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL18" t="n">
         <v>7.5</v>
@@ -3099,16 +3099,16 @@
         <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP18" t="n">
         <v>21</v>
       </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3286,96 +3286,96 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H20" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
         <v>18.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="K20" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI20" t="n">
         <v>40</v>
       </c>
-      <c r="AG20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>37</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK20" t="n">
         <v>101</v>
       </c>
       <c r="AL20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
@@ -3387,7 +3387,7 @@
         <v>1250</v>
       </c>
       <c r="AP20" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AQ20" t="n">
         <v>250</v>
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>1.65</v>
@@ -3587,13 +3587,13 @@
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -3602,10 +3602,10 @@
         <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -3616,16 +3616,16 @@
         <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA22" t="n">
         <v>12</v>
@@ -3634,7 +3634,7 @@
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
         <v>51</v>
@@ -3646,25 +3646,25 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI22" t="n">
         <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK22" t="n">
         <v>351</v>
       </c>
       <c r="AL22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN22" t="n">
         <v>8.5</v>
@@ -3673,7 +3673,7 @@
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
         <v>29</v>
@@ -3722,10 +3722,10 @@
         <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
         <v>4.33</v>
@@ -3787,7 +3787,7 @@
         <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
@@ -4165,7 +4165,7 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4188,10 +4188,10 @@
         <v>1.2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y26" t="n">
         <v>1.91</v>
@@ -4218,7 +4218,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
@@ -4309,24 +4309,24 @@
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W27" t="n">
         <v>1.33</v>
@@ -4585,10 +4585,10 @@
         <v>2.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -4597,18 +4597,18 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W29" t="n">
         <v>1.5</v>
@@ -4994,16 +4994,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
@@ -5059,7 +5059,7 @@
         <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
         <v>21</v>
@@ -5083,19 +5083,19 @@
         <v>251</v>
       </c>
       <c r="AL32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM32" t="n">
         <v>13</v>
       </c>
       <c r="AN32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ32" t="n">
         <v>29</v>
@@ -5200,7 +5200,7 @@
         <v>9</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
         <v>17</v>
@@ -5324,16 +5324,16 @@
         <v>1.53</v>
       </c>
       <c r="W34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA34" t="n">
         <v>9.5</v>
@@ -5348,7 +5348,7 @@
         <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>21</v>
@@ -5366,7 +5366,7 @@
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="n">
         <v>17</v>
@@ -5421,33 +5421,33 @@
         </is>
       </c>
       <c r="G35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K35" t="n">
         <v>2.12</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L35" t="n">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
         <v>1.7</v>
@@ -5455,10 +5455,10 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
         <v>1.44</v>
@@ -5470,55 +5470,55 @@
         <v>1.75</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG35" t="n">
         <v>9</v>
       </c>
       <c r="AH35" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AI35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ35" t="n">
         <v>70</v>
       </c>
       <c r="AK35" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL35" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AM35" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AN35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AP35" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ35" t="n">
         <v>40</v>
@@ -5695,13 +5695,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J37" t="n">
         <v>4.5</v>
@@ -5775,19 +5775,19 @@
         <v>6.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
         <v>67</v>
       </c>
       <c r="AK37" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL37" t="n">
         <v>6.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN37" t="n">
         <v>9</v>
@@ -5854,10 +5854,10 @@
         <v>3.1</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
         <v>1.5</v>
@@ -5981,22 +5981,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="H39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6011,10 +6011,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6031,22 +6031,22 @@
         <v>2.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC39" t="n">
         <v>8.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE39" t="n">
         <v>13</v>
@@ -6058,7 +6058,7 @@
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI39" t="n">
         <v>23</v>
@@ -6070,16 +6070,16 @@
         <v>501</v>
       </c>
       <c r="AL39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP39" t="n">
         <v>51</v>
@@ -6131,7 +6131,7 @@
         <v>3.6</v>
       </c>
       <c r="J40" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
@@ -6140,10 +6140,10 @@
         <v>4.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -6181,7 +6181,7 @@
         <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC40" t="n">
         <v>9</v>
@@ -6193,16 +6193,16 @@
         <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH40" t="n">
         <v>6</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>51</v>
@@ -6475,7 +6475,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
@@ -6484,13 +6484,13 @@
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="K43" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -6501,10 +6501,10 @@
         <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="R43" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6514,8 +6514,12 @@
       <c r="V43" t="n">
         <v>1.32</v>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.4</v>
+      </c>
       <c r="Y43" t="n">
         <v>1.76</v>
       </c>
@@ -6523,55 +6527,55 @@
         <v>1.95</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="AC43" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD43" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE43" t="n">
         <v>12</v>
       </c>
       <c r="AF43" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="AH43" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI43" t="n">
         <v>11</v>
       </c>
       <c r="AJ43" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AL43" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="AM43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN43" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP43" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6882,22 +6886,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K46" t="n">
         <v>1.91</v>
       </c>
       <c r="L46" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>1.11</v>
@@ -6926,28 +6930,28 @@
         <v>1.14</v>
       </c>
       <c r="W46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z46" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.62</v>
       </c>
       <c r="AA46" t="n">
         <v>5.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="n">
         <v>21</v>
@@ -6971,16 +6975,16 @@
         <v>101</v>
       </c>
       <c r="AL46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP46" t="n">
         <v>41</v>
@@ -6989,10 +6993,10 @@
         <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="47">
@@ -7216,10 +7220,10 @@
         <v>1.5</v>
       </c>
       <c r="W48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y48" t="n">
         <v>1.83</v>
@@ -7249,7 +7253,7 @@
         <v>15</v>
       </c>
       <c r="AH48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI48" t="n">
         <v>19</v>
@@ -7328,7 +7332,7 @@
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M49" t="n">
         <v>1.04</v>
@@ -7372,7 +7376,7 @@
         <v>9</v>
       </c>
       <c r="AB49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
         <v>9.5</v>
@@ -7402,7 +7406,7 @@
         <v>201</v>
       </c>
       <c r="AL49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM49" t="n">
         <v>15</v>
@@ -7411,7 +7415,7 @@
         <v>10</v>
       </c>
       <c r="AO49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP49" t="n">
         <v>21</v>
@@ -7608,13 +7612,13 @@
         <v>2.8</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K51" t="n">
         <v>2.4</v>
       </c>
       <c r="L51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M51" t="n">
         <v>1.02</v>
@@ -7671,7 +7675,7 @@
         <v>23</v>
       </c>
       <c r="AE51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF51" t="n">
         <v>19</v>
@@ -7695,7 +7699,7 @@
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN51" t="n">
         <v>11</v>
@@ -7744,13 +7748,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H52" t="n">
         <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J52" t="n">
         <v>2.88</v>
@@ -7798,19 +7802,19 @@
         <v>3.4</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD52" t="n">
         <v>21</v>
@@ -7828,7 +7832,7 @@
         <v>7.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ52" t="n">
         <v>41</v>
@@ -7852,7 +7856,7 @@
         <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7892,7 +7896,7 @@
         <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
         <v>4.33</v>
@@ -7901,7 +7905,7 @@
         <v>2.6</v>
       </c>
       <c r="K53" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
         <v>5</v>
@@ -7919,10 +7923,10 @@
         <v>2.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -7939,10 +7943,10 @@
         <v>2.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA53" t="n">
         <v>6</v>
@@ -7993,7 +7997,7 @@
         <v>41</v>
       </c>
       <c r="AQ53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8060,18 +8064,18 @@
         <v>2.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W54" t="n">
         <v>1.53</v>
@@ -8080,10 +8084,10 @@
         <v>2.38</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA54" t="n">
         <v>6.5</v>
@@ -8101,16 +8105,16 @@
         <v>21</v>
       </c>
       <c r="AF54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
         <v>67</v>
@@ -8119,7 +8123,7 @@
         <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM54" t="n">
         <v>15</v>
@@ -8137,10 +8141,10 @@
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -8324,28 +8328,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K56" t="n">
         <v>2.1</v>
       </c>
-      <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L56" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
         <v>1.29</v>
@@ -8387,16 +8391,16 @@
         <v>11</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF56" t="n">
         <v>34</v>
@@ -8405,7 +8409,7 @@
         <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI56" t="n">
         <v>13</v>
@@ -8420,13 +8424,13 @@
         <v>8</v>
       </c>
       <c r="AM56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN56" t="n">
         <v>9</v>
       </c>
       <c r="AO56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP56" t="n">
         <v>17</v>
@@ -8632,22 +8636,22 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R58" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8764,7 +8768,7 @@
         <v>1.42</v>
       </c>
       <c r="J59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K59" t="n">
         <v>2.2</v>
@@ -8773,10 +8777,10 @@
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
@@ -8805,10 +8809,10 @@
         <v>2.63</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA59" t="n">
         <v>15</v>
@@ -8823,22 +8827,22 @@
         <v>81</v>
       </c>
       <c r="AE59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF59" t="n">
         <v>67</v>
       </c>
       <c r="AG59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ59" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="n">
         <v>351</v>
@@ -8856,10 +8860,10 @@
         <v>9</v>
       </c>
       <c r="AP59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -8908,16 +8912,16 @@
         <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L60" t="n">
         <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O60" t="n">
         <v>1.22</v>
@@ -8961,7 +8965,7 @@
         <v>8.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -8985,10 +8989,10 @@
         <v>251</v>
       </c>
       <c r="AL60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN60" t="n">
         <v>19</v>
@@ -9067,18 +9071,18 @@
         <v>2.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V61" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W61" t="n">
         <v>1.5</v>
@@ -9319,19 +9323,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
         <v>3.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K63" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L63" t="n">
         <v>3.75</v>
@@ -9349,10 +9353,10 @@
         <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R63" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S63" t="n">
         <v>1.95</v>
@@ -9403,10 +9407,10 @@
         <v>7.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK63" t="n">
         <v>126</v>
@@ -9550,7 +9554,7 @@
         <v>67</v>
       </c>
       <c r="AK64" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL64" t="n">
         <v>34</v>
@@ -9608,25 +9612,25 @@
         <v>1.7</v>
       </c>
       <c r="H65" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I65" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
         <v>2.4</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N65" t="n">
         <v>6</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>7</v>
       </c>
       <c r="O65" t="n">
         <v>1.5</v>
@@ -9635,30 +9639,30 @@
         <v>2.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R65" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V65" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W65" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X65" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y65" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA65" t="n">
         <v>5</v>
@@ -9673,22 +9677,22 @@
         <v>13</v>
       </c>
       <c r="AE65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF65" t="n">
         <v>41</v>
       </c>
       <c r="AG65" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH65" t="n">
         <v>6.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ65" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="n">
         <v>101</v>
@@ -9700,7 +9704,7 @@
         <v>26</v>
       </c>
       <c r="AN65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO65" t="n">
         <v>67</v>
@@ -9709,13 +9713,13 @@
         <v>51</v>
       </c>
       <c r="AQ65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR65" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="66">
@@ -10032,22 +10036,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H68" t="n">
         <v>3.35</v>
       </c>
       <c r="I68" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J68" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K68" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L68" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="M68" t="n">
         <v>1.04</v>
@@ -10059,7 +10063,7 @@
         <v>1.21</v>
       </c>
       <c r="P68" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q68" t="n">
         <v>1.65</v>
@@ -10070,16 +10074,16 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V68" t="n">
         <v>1.47</v>
       </c>
       <c r="W68" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X68" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y68" t="n">
         <v>1.52</v>
@@ -10088,22 +10092,22 @@
         <v>2.37</v>
       </c>
       <c r="AA68" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AB68" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE68" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG68" t="n">
         <v>8.25</v>
@@ -10115,28 +10119,28 @@
         <v>11</v>
       </c>
       <c r="AJ68" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="n">
         <v>250</v>
       </c>
       <c r="AL68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM68" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN68" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO68" t="n">
         <v>35</v>
       </c>
       <c r="AP68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ68" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10173,16 +10177,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H69" t="n">
         <v>3.7</v>
       </c>
       <c r="I69" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K69" t="n">
         <v>2.3</v>
@@ -10236,7 +10240,7 @@
         <v>15</v>
       </c>
       <c r="AB69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC69" t="n">
         <v>15</v>
@@ -10248,7 +10252,7 @@
         <v>34</v>
       </c>
       <c r="AF69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG69" t="n">
         <v>13</v>
@@ -10275,13 +10279,13 @@
         <v>8.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP69" t="n">
         <v>13</v>
       </c>
       <c r="AQ69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10459,102 +10463,102 @@
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K71" t="n">
         <v>2.1</v>
       </c>
-      <c r="H71" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L71" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="O71" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P71" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="R71" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="V71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W71" t="n">
         <v>1.4</v>
       </c>
-      <c r="W71" t="n">
-        <v>1.36</v>
-      </c>
       <c r="X71" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="AA71" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC71" t="n">
         <v>8.75</v>
       </c>
-      <c r="AB71" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE71" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG71" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AI71" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ71" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL71" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AM71" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AN71" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO71" t="n">
         <v>40</v>
@@ -10563,7 +10567,7 @@
         <v>26</v>
       </c>
       <c r="AQ71" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10600,40 +10604,40 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I72" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K72" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L72" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O72" t="n">
         <v>1.2</v>
       </c>
       <c r="P72" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q72" t="n">
         <v>1.6</v>
       </c>
       <c r="R72" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10647,64 +10651,64 @@
         <v>1.31</v>
       </c>
       <c r="X72" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Z72" t="n">
         <v>2.32</v>
       </c>
       <c r="AA72" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB72" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE72" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG72" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH72" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI72" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ72" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="n">
         <v>250</v>
       </c>
       <c r="AL72" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM72" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AN72" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AO72" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AP72" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10759,22 +10763,22 @@
         <v>4.33</v>
       </c>
       <c r="M73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -728,10 +728,10 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.3</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -1034,7 +1034,7 @@
         <v>2.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM4" t="n">
         <v>11</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1586,10 +1586,10 @@
         <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U8" t="n">
         <v>5.5</v>
@@ -1699,28 +1699,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -1788,16 +1788,16 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP9" t="n">
         <v>51</v>
@@ -2017,16 +2017,16 @@
         <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
         <v>1.29</v>
@@ -2303,10 +2303,10 @@
         <v>2.35</v>
       </c>
       <c r="S13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
         <v>2.38</v>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
@@ -2421,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2486,13 +2486,13 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>5.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2501,7 +2501,7 @@
         <v>351</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -2620,13 +2620,13 @@
         <v>8</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -2656,7 +2656,7 @@
         <v>17</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
         <v>34</v>
@@ -3010,7 +3010,7 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
@@ -3025,7 +3025,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3593,7 +3593,7 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -3610,10 +3610,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
         <v>1.44</v>
@@ -3858,22 +3858,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.14</v>
@@ -3908,10 +3908,10 @@
         <v>2.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
@@ -3923,16 +3923,16 @@
         <v>11</v>
       </c>
       <c r="AD24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="n">
         <v>26</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>29</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH24" t="n">
         <v>5.5</v>
@@ -3953,13 +3953,13 @@
         <v>15</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ24" t="n">
         <v>51</v>
@@ -4144,16 +4144,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
@@ -4165,7 +4165,7 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4174,24 +4174,24 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y26" t="n">
         <v>1.91</v>
@@ -4206,7 +4206,7 @@
         <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
         <v>29</v>
@@ -4218,7 +4218,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
@@ -4233,7 +4233,7 @@
         <v>351</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM26" t="n">
         <v>11</v>
@@ -4456,10 +4456,10 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4597,18 +4597,18 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
         <v>1.5</v>
@@ -4708,19 +4708,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
         <v>3.1</v>
@@ -4777,10 +4777,10 @@
         <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
@@ -5024,10 +5024,10 @@
         <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5135,16 +5135,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
@@ -5165,24 +5165,24 @@
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
         <v>1.67</v>
@@ -5221,7 +5221,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL33" t="n">
         <v>11</v>
@@ -5421,80 +5421,80 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="K35" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L35" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W35" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X35" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD35" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH35" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI35" t="n">
         <v>14.5</v>
@@ -5503,25 +5503,25 @@
         <v>70</v>
       </c>
       <c r="AK35" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM35" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN35" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP35" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5558,33 +5558,33 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
         <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
         <v>2.65</v>
       </c>
       <c r="K36" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
         <v>1.78</v>
@@ -5592,16 +5592,16 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="V36" t="n">
         <v>1.31</v>
       </c>
       <c r="W36" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X36" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="Y36" t="n">
         <v>1.65</v>
@@ -5610,31 +5610,31 @@
         <v>1.98</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
         <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE36" t="n">
         <v>16</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH36" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>60</v>
@@ -5643,22 +5643,22 @@
         <v>450</v>
       </c>
       <c r="AL36" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AM36" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN36" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO36" t="n">
         <v>50</v>
       </c>
       <c r="AP36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -6011,18 +6011,18 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W39" t="n">
         <v>1.4</v>
@@ -6122,16 +6122,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
@@ -6281,10 +6281,10 @@
         <v>4.33</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -6612,44 +6612,44 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="K44" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R44" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6658,61 +6658,61 @@
         <v>2.55</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI44" t="n">
         <v>16</v>
       </c>
-      <c r="AE44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="n">
         <v>600</v>
       </c>
       <c r="AL44" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AM44" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AN44" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP44" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ44" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6749,13 +6749,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
         <v>2.08</v>
@@ -6769,24 +6769,24 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="V45" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W45" t="n">
         <v>1.39</v>
@@ -6795,37 +6795,37 @@
         <v>2.55</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB45" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AC45" t="n">
         <v>8</v>
       </c>
       <c r="AD45" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE45" t="n">
         <v>12</v>
       </c>
-      <c r="AE45" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AI45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ45" t="n">
         <v>75</v>
@@ -6834,22 +6834,22 @@
         <v>600</v>
       </c>
       <c r="AL45" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM45" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN45" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AP45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -6886,13 +6886,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
         <v>2.75</v>
@@ -6904,36 +6904,36 @@
         <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y46" t="n">
         <v>2.25</v>
@@ -6945,13 +6945,13 @@
         <v>5.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC46" t="n">
         <v>9.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE46" t="n">
         <v>21</v>
@@ -6993,10 +6993,10 @@
         <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="47">
@@ -7208,10 +7208,10 @@
         <v>2.3</v>
       </c>
       <c r="S48" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -7482,10 +7482,10 @@
         <v>19</v>
       </c>
       <c r="O50" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P50" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q50" t="n">
         <v>1.48</v>
@@ -7606,25 +7606,25 @@
         <v>2.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
         <v>2.8</v>
       </c>
       <c r="J51" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K51" t="n">
         <v>2.4</v>
       </c>
       <c r="L51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O51" t="n">
         <v>1.14</v>
@@ -7633,16 +7633,16 @@
         <v>5.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S51" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U51" t="n">
         <v>2.2</v>
@@ -7651,10 +7651,10 @@
         <v>1.62</v>
       </c>
       <c r="W51" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X51" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y51" t="n">
         <v>1.44</v>
@@ -7663,7 +7663,7 @@
         <v>2.63</v>
       </c>
       <c r="AA51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB51" t="n">
         <v>15</v>
@@ -7675,31 +7675,31 @@
         <v>23</v>
       </c>
       <c r="AE51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG51" t="n">
         <v>19</v>
       </c>
       <c r="AH51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI51" t="n">
         <v>11</v>
       </c>
       <c r="AJ51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN51" t="n">
         <v>11</v>
@@ -7748,16 +7748,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J52" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
@@ -7772,16 +7772,16 @@
         <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
         <v>2.05</v>
@@ -7790,10 +7790,10 @@
         <v>1.8</v>
       </c>
       <c r="U52" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W52" t="n">
         <v>1.3</v>
@@ -7808,13 +7808,13 @@
         <v>2.38</v>
       </c>
       <c r="AA52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB52" t="n">
         <v>13</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD52" t="n">
         <v>21</v>
@@ -7856,7 +7856,7 @@
         <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7893,16 +7893,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
@@ -7914,7 +7914,7 @@
         <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
         <v>1.4</v>
@@ -7961,7 +7961,7 @@
         <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="n">
         <v>34</v>
@@ -8501,10 +8501,10 @@
         <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q57" t="n">
         <v>2.1</v>
@@ -8759,7 +8759,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H59" t="n">
         <v>3.9</v>
@@ -8777,10 +8777,10 @@
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
@@ -8809,22 +8809,22 @@
         <v>2.63</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA59" t="n">
         <v>15</v>
       </c>
       <c r="AB59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC59" t="n">
         <v>23</v>
       </c>
       <c r="AD59" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE59" t="n">
         <v>67</v>
@@ -8833,10 +8833,10 @@
         <v>67</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI59" t="n">
         <v>26</v>
@@ -8851,10 +8851,10 @@
         <v>5.5</v>
       </c>
       <c r="AM59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO59" t="n">
         <v>9</v>
@@ -8918,10 +8918,10 @@
         <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O60" t="n">
         <v>1.22</v>
@@ -9053,10 +9053,10 @@
         <v>3.6</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
@@ -9085,10 +9085,10 @@
         <v>1.2</v>
       </c>
       <c r="W61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X61" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y61" t="n">
         <v>1.95</v>
@@ -9115,7 +9115,7 @@
         <v>41</v>
       </c>
       <c r="AG61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH61" t="n">
         <v>6</v>
@@ -9127,10 +9127,10 @@
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM61" t="n">
         <v>12</v>
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>3.2</v>
       </c>
       <c r="I62" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J62" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K62" t="n">
         <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -9238,7 +9238,7 @@
         <v>1.83</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB62" t="n">
         <v>15</v>
@@ -9247,10 +9247,10 @@
         <v>12</v>
       </c>
       <c r="AD62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF62" t="n">
         <v>34</v>
@@ -9271,19 +9271,19 @@
         <v>600</v>
       </c>
       <c r="AL62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM62" t="n">
         <v>11</v>
       </c>
       <c r="AN62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO62" t="n">
         <v>21</v>
       </c>
       <c r="AP62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ62" t="n">
         <v>29</v>
@@ -9326,16 +9326,16 @@
         <v>1.85</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J63" t="n">
         <v>2.4</v>
       </c>
       <c r="K63" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L63" t="n">
         <v>3.75</v>
@@ -9353,22 +9353,22 @@
         <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R63" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S63" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T63" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U63" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W63" t="n">
         <v>1.3</v>
@@ -9407,7 +9407,7 @@
         <v>7.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ63" t="n">
         <v>41</v>
@@ -10322,22 +10322,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H70" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I70" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J70" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K70" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L70" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="M70" t="n">
         <v>1.04</v>
@@ -10346,24 +10346,24 @@
         <v>8.5</v>
       </c>
       <c r="O70" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P70" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R70" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V70" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W70" t="n">
         <v>1.32</v>
@@ -10378,7 +10378,7 @@
         <v>2.3</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB70" t="n">
         <v>10.75</v>
@@ -10387,22 +10387,22 @@
         <v>8.25</v>
       </c>
       <c r="AD70" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE70" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF70" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG70" t="n">
         <v>8.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI70" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ70" t="n">
         <v>45</v>
@@ -10414,19 +10414,19 @@
         <v>13.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN70" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP70" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ70" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
@@ -10463,48 +10463,48 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>3.35</v>
       </c>
       <c r="I71" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J71" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="K71" t="n">
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M71" t="n">
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O71" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P71" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R71" t="n">
         <v>1.87</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.83</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W71" t="n">
         <v>1.4</v>
@@ -10513,58 +10513,58 @@
         <v>2.72</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA71" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB71" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AC71" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG71" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AH71" t="n">
         <v>6.4</v>
       </c>
       <c r="AI71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ71" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK71" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL71" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AM71" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AN71" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ71" t="n">
         <v>32</v>
@@ -10604,63 +10604,63 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I72" t="n">
         <v>2.52</v>
       </c>
       <c r="J72" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N72" t="n">
+        <v>9</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R72" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N72" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P72" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R72" t="n">
-        <v>2.18</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="V72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y72" t="n">
         <v>1.5</v>
       </c>
-      <c r="W72" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X72" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Z72" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="AA72" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB72" t="n">
         <v>14</v>
@@ -10672,16 +10672,16 @@
         <v>26</v>
       </c>
       <c r="AE72" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF72" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG72" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH72" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AI72" t="n">
         <v>12</v>
@@ -10693,10 +10693,10 @@
         <v>250</v>
       </c>
       <c r="AL72" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AM72" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN72" t="n">
         <v>9.75</v>
@@ -10705,10 +10705,10 @@
         <v>28</v>
       </c>
       <c r="AP72" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ72" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10757,7 +10757,7 @@
         <v>3.4</v>
       </c>
       <c r="K73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L73" t="n">
         <v>4.33</v>
@@ -10769,16 +10769,16 @@
         <v>6</v>
       </c>
       <c r="O73" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P73" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q73" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R73" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -704,10 +704,10 @@
         <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -728,16 +728,16 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -746,16 +746,16 @@
         <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -797,10 +797,10 @@
         <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>3.4</v>
@@ -852,13 +852,13 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -867,10 +867,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -896,7 +896,7 @@
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -993,7 +993,7 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1002,24 +1002,24 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.36</v>
@@ -1046,13 +1046,13 @@
         <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
@@ -1082,7 +1082,7 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.75</v>
@@ -1273,10 +1273,10 @@
         <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1294,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1405,48 +1405,48 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
         <v>1.57</v>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1494,7 +1494,7 @@
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
@@ -1503,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>
@@ -1512,10 +1512,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="8">
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
         <v>3.25</v>
@@ -1708,19 +1708,19 @@
         <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L10" t="n">
         <v>4.75</v>
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
@@ -1935,7 +1935,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>41</v>
@@ -1990,13 +1990,13 @@
         <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2005,46 +2005,46 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.5</v>
@@ -2056,31 +2056,31 @@
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK11" t="n">
         <v>201</v>
       </c>
       <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
         <v>21</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>19</v>
       </c>
       <c r="AO11" t="n">
         <v>67</v>
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2150,16 +2150,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2170,10 +2170,10 @@
         <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y12" t="n">
         <v>1.8</v>
@@ -2182,19 +2182,19 @@
         <v>1.95</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2218,16 +2218,16 @@
         <v>7.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN12" t="n">
         <v>8.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
@@ -2321,16 +2321,16 @@
         <v>3.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2342,7 +2342,7 @@
         <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2360,7 +2360,7 @@
         <v>126</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM13" t="n">
         <v>10</v>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
@@ -2421,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2513,16 +2513,16 @@
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="15">
@@ -2593,10 +2593,10 @@
         <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U15" t="n">
         <v>3.25</v>
@@ -2668,10 +2668,10 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="16">
@@ -3037,7 +3037,7 @@
         <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
         <v>4.1</v>
@@ -3153,22 +3153,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3186,7 +3186,7 @@
         <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3209,19 +3209,19 @@
         <v>1.83</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
@@ -3230,7 +3230,7 @@
         <v>8.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -3245,16 +3245,16 @@
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>29</v>
@@ -3438,19 +3438,19 @@
         <v>1.16</v>
       </c>
       <c r="H21" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" t="n">
         <v>1.53</v>
       </c>
       <c r="K21" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3479,10 +3479,10 @@
         <v>1.55</v>
       </c>
       <c r="W21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Y21" t="n">
         <v>2.5</v>
@@ -3497,7 +3497,7 @@
         <v>5.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>6.4</v>
@@ -3512,7 +3512,7 @@
         <v>9.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI21" t="n">
         <v>40</v>
@@ -3524,19 +3524,19 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO21" t="n">
         <v>1250</v>
       </c>
       <c r="AP21" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AQ21" t="n">
         <v>250</v>
@@ -3576,19 +3576,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
         <v>4.33</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
         <v>2.05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L22" t="n">
         <v>5.5</v>
@@ -3600,28 +3600,28 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S22" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
         <v>1.29</v>
@@ -3636,7 +3636,7 @@
         <v>2.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
         <v>8.5</v>
@@ -3648,13 +3648,13 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
         <v>8.5</v>
@@ -3669,7 +3669,7 @@
         <v>151</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>29</v>
@@ -3727,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="J23" t="n">
         <v>5.5</v>
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -3877,25 +3877,25 @@
         <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.53</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -3906,19 +3906,19 @@
         <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB24" t="n">
         <v>8.5</v>
@@ -3936,7 +3936,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
         <v>6.5</v>
@@ -3963,16 +3963,16 @@
         <v>41</v>
       </c>
       <c r="AP24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="25">
@@ -4152,28 +4152,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4182,18 +4182,18 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
         <v>1.5</v>
@@ -4211,13 +4211,13 @@
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -4232,7 +4232,7 @@
         <v>5.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>51</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
@@ -4253,13 +4253,17 @@
         <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
+      <c r="AR26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4293,102 +4297,102 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.9</v>
       </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
         <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK27" t="n">
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -4397,10 +4401,14 @@
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4434,22 +4442,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4464,10 +4472,10 @@
         <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4496,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
         <v>23</v>
@@ -4511,10 +4519,10 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -4529,13 +4537,13 @@
         <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>26</v>
@@ -4857,22 +4865,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4887,16 +4895,16 @@
         <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U31" t="n">
         <v>2.5</v>
@@ -4911,61 +4919,61 @@
         <v>3.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="n">
         <v>12</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
         <v>15</v>
       </c>
-      <c r="AC31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17</v>
-      </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
       </c>
       <c r="AK31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>26</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>23</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5002,19 +5010,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
         <v>5</v>
@@ -5026,24 +5034,24 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W32" t="n">
         <v>1.36</v>
@@ -5052,16 +5060,16 @@
         <v>3</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA32" t="n">
         <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
@@ -5088,7 +5096,7 @@
         <v>51</v>
       </c>
       <c r="AK32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="n">
         <v>15</v>
@@ -5097,13 +5105,13 @@
         <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO32" t="n">
         <v>51</v>
       </c>
       <c r="AP32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -5143,22 +5151,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -5167,10 +5175,10 @@
         <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
         <v>2.05</v>
@@ -5181,10 +5189,10 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
         <v>1.44</v>
@@ -5199,7 +5207,7 @@
         <v>1.91</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
         <v>12</v>
@@ -5208,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="AD33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
         <v>21</v>
@@ -5217,7 +5225,7 @@
         <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
         <v>6.5</v>
@@ -5238,13 +5246,13 @@
         <v>13</v>
       </c>
       <c r="AN33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ33" t="n">
         <v>34</v>
@@ -5314,18 +5322,18 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
@@ -5425,70 +5433,70 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
         <v>4.33</v>
       </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K35" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
         <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z35" t="n">
         <v>2.38</v>
       </c>
-      <c r="V35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AA35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
         <v>8.5</v>
@@ -5500,13 +5508,13 @@
         <v>12</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI35" t="n">
         <v>13</v>
@@ -5518,7 +5526,7 @@
         <v>126</v>
       </c>
       <c r="AL35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="n">
         <v>26</v>
@@ -5530,10 +5538,10 @@
         <v>51</v>
       </c>
       <c r="AP35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5570,44 +5578,44 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H36" t="n">
         <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K36" t="n">
         <v>2.15</v>
       </c>
       <c r="L36" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W36" t="n">
         <v>1.44</v>
@@ -5616,61 +5624,61 @@
         <v>2.6</v>
       </c>
       <c r="Y36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z36" t="n">
         <v>1.78</v>
       </c>
-      <c r="Z36" t="n">
-        <v>1.83</v>
-      </c>
       <c r="AA36" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AC36" t="n">
         <v>8.25</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH36" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI36" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AJ36" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM36" t="n">
         <v>25</v>
       </c>
       <c r="AN36" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP36" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5853,7 +5861,7 @@
         <v>1.95</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
@@ -5865,13 +5873,13 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
         <v>2.2</v>
@@ -5894,10 +5902,10 @@
         <v>2.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA38" t="n">
         <v>9</v>
@@ -5927,7 +5935,7 @@
         <v>17</v>
       </c>
       <c r="AJ38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK38" t="n">
         <v>401</v>
@@ -5985,28 +5993,28 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="J39" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K39" t="n">
         <v>1.91</v>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.53</v>
@@ -6029,31 +6037,31 @@
         <v>1.14</v>
       </c>
       <c r="W39" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
@@ -6074,19 +6082,19 @@
         <v>101</v>
       </c>
       <c r="AL39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ39" t="n">
         <v>41</v>
@@ -6160,18 +6168,18 @@
         <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R40" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W40" t="n">
         <v>1.4</v>
@@ -6289,10 +6297,10 @@
         <v>4.33</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -6412,22 +6420,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6436,24 +6444,24 @@
         <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W42" t="n">
         <v>1.44</v>
@@ -6471,16 +6479,16 @@
         <v>7</v>
       </c>
       <c r="AB42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC42" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC42" t="n">
-        <v>9</v>
-      </c>
       <c r="AD42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE42" t="n">
         <v>19</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>17</v>
       </c>
       <c r="AF42" t="n">
         <v>29</v>
@@ -6501,16 +6509,16 @@
         <v>351</v>
       </c>
       <c r="AL42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN42" t="n">
         <v>12</v>
       </c>
       <c r="AO42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP42" t="n">
         <v>29</v>
@@ -6553,22 +6561,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I43" t="n">
-        <v>4.15</v>
+        <v>4.55</v>
       </c>
       <c r="J43" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -6578,7 +6586,7 @@
         <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6589,55 +6597,55 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AC43" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD43" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF43" t="n">
         <v>18.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI43" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ43" t="n">
         <v>45</v>
       </c>
       <c r="AK43" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM43" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AN43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP43" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6694,10 +6702,10 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q44" t="n">
         <v>1.65</v>
@@ -6708,10 +6716,10 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="V44" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6720,10 +6728,10 @@
         <v>2.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AA44" t="n">
         <v>7.1</v>
@@ -7138,7 +7146,7 @@
         <v>2.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA47" t="n">
         <v>5.5</v>
@@ -7192,10 +7200,10 @@
         <v>51</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="48">
@@ -7230,84 +7238,84 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>2.9</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L48" t="n">
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA48" t="n">
         <v>6</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>5.5</v>
       </c>
       <c r="AB48" t="n">
         <v>9.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE48" t="n">
         <v>23</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>26</v>
       </c>
       <c r="AF48" t="n">
         <v>41</v>
       </c>
       <c r="AG48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH48" t="n">
         <v>6</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>21</v>
@@ -7319,25 +7327,29 @@
         <v>101</v>
       </c>
       <c r="AL48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN48" t="n">
         <v>13</v>
       </c>
       <c r="AO48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP48" t="n">
         <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7371,13 +7383,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H49" t="n">
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
         <v>1.91</v>
@@ -7386,7 +7398,7 @@
         <v>2.5</v>
       </c>
       <c r="L49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7428,10 +7440,10 @@
         <v>1.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB49" t="n">
         <v>7.5</v>
@@ -7440,7 +7452,7 @@
         <v>8.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE49" t="n">
         <v>11</v>
@@ -7449,10 +7461,10 @@
         <v>23</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
         <v>19</v>
@@ -7464,7 +7476,7 @@
         <v>251</v>
       </c>
       <c r="AL49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM49" t="n">
         <v>34</v>
@@ -7516,28 +7528,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H50" t="n">
         <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
         <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
@@ -7566,28 +7578,28 @@
         <v>2.75</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z50" t="n">
         <v>2.1</v>
       </c>
       <c r="AA50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
         <v>10</v>
       </c>
       <c r="AD50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
@@ -7605,22 +7617,22 @@
         <v>201</v>
       </c>
       <c r="AL50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN50" t="n">
         <v>9.5</v>
       </c>
-      <c r="AM50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>10</v>
-      </c>
       <c r="AO50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ50" t="n">
         <v>26</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>29</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7711,7 +7723,7 @@
         <v>3.75</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z51" t="n">
         <v>2.25</v>
@@ -7805,7 +7817,7 @@
         <v>2.25</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
         <v>2.8</v>
@@ -7814,10 +7826,10 @@
         <v>2.88</v>
       </c>
       <c r="K52" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7832,22 +7844,22 @@
         <v>5</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V52" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.57</v>
       </c>
       <c r="W52" t="n">
         <v>1.29</v>
@@ -7856,16 +7868,16 @@
         <v>3.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
         <v>9.5</v>
@@ -7880,13 +7892,13 @@
         <v>21</v>
       </c>
       <c r="AG52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ52" t="n">
         <v>34</v>
@@ -7907,10 +7919,10 @@
         <v>29</v>
       </c>
       <c r="AP52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7950,10 +7962,10 @@
         <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J53" t="n">
         <v>2.75</v>
@@ -7968,31 +7980,31 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S53" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T53" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V53" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W53" t="n">
         <v>1.3</v>
@@ -8001,19 +8013,19 @@
         <v>3.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
         <v>13</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD53" t="n">
         <v>21</v>
@@ -8092,40 +8104,40 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K54" t="n">
         <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R54" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -8136,10 +8148,10 @@
         <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X54" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y54" t="n">
         <v>2.1</v>
@@ -8157,10 +8169,10 @@
         <v>9</v>
       </c>
       <c r="AD54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE54" t="n">
         <v>17</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>19</v>
       </c>
       <c r="AF54" t="n">
         <v>34</v>
@@ -8181,10 +8193,10 @@
         <v>1250</v>
       </c>
       <c r="AL54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN54" t="n">
         <v>15</v>
@@ -8237,22 +8249,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
         <v>1.95</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -8302,13 +8314,13 @@
         <v>10</v>
       </c>
       <c r="AD55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG55" t="n">
         <v>7.5</v>
@@ -8317,7 +8329,7 @@
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="n">
         <v>67</v>
@@ -8326,10 +8338,10 @@
         <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN55" t="n">
         <v>12</v>
@@ -8382,28 +8394,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H56" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J56" t="n">
         <v>2.2</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L56" t="n">
         <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
         <v>1.29</v>
@@ -8412,22 +8424,22 @@
         <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S56" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="T56" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W56" t="n">
         <v>1.4</v>
@@ -8451,7 +8463,7 @@
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE56" t="n">
         <v>13</v>
@@ -8481,22 +8493,22 @@
         <v>29</v>
       </c>
       <c r="AN56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP56" t="n">
         <v>41</v>
       </c>
       <c r="AQ56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="57">
@@ -8680,48 +8692,48 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J58" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R58" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W58" t="n">
         <v>1.44</v>
@@ -8745,7 +8757,7 @@
         <v>9</v>
       </c>
       <c r="AD58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE58" t="n">
         <v>17</v>
@@ -8754,7 +8766,7 @@
         <v>29</v>
       </c>
       <c r="AG58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH58" t="n">
         <v>6.5</v>
@@ -8772,10 +8784,10 @@
         <v>10</v>
       </c>
       <c r="AM58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO58" t="n">
         <v>41</v>
@@ -8962,28 +8974,28 @@
         </is>
       </c>
       <c r="G60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J60" t="n">
         <v>7.5</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8</v>
       </c>
       <c r="K60" t="n">
         <v>2.2</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
         <v>1.36</v>
@@ -8992,18 +9004,18 @@
         <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R60" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W60" t="n">
         <v>1.44</v>
@@ -9012,25 +9024,25 @@
         <v>2.63</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD60" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE60" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AF60" t="n">
         <v>67</v>
@@ -9042,10 +9054,10 @@
         <v>8</v>
       </c>
       <c r="AI60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="n">
         <v>351</v>
@@ -9054,19 +9066,19 @@
         <v>5.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO60" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>9</v>
       </c>
       <c r="AP60" t="n">
         <v>15</v>
       </c>
       <c r="AQ60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9244,72 +9256,72 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I62" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="J62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L62" t="n">
         <v>3.6</v>
       </c>
-      <c r="K62" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R62" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W62" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X62" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC62" t="n">
         <v>11</v>
       </c>
       <c r="AD62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE62" t="n">
         <v>26</v>
@@ -9318,40 +9330,44 @@
         <v>41</v>
       </c>
       <c r="AG62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK62" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN62" t="n">
         <v>12</v>
       </c>
-      <c r="AN62" t="n">
-        <v>10</v>
-      </c>
       <c r="AO62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP62" t="n">
         <v>26</v>
       </c>
-      <c r="AP62" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ62" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9385,16 +9401,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H63" t="n">
         <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J63" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K63" t="n">
         <v>2.05</v>
@@ -9409,10 +9425,10 @@
         <v>8</v>
       </c>
       <c r="O63" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q63" t="n">
         <v>2.05</v>
@@ -9435,16 +9451,16 @@
         <v>2.63</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA63" t="n">
         <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC63" t="n">
         <v>12</v>
@@ -9453,10 +9469,10 @@
         <v>34</v>
       </c>
       <c r="AE63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG63" t="n">
         <v>9</v>
@@ -9471,19 +9487,19 @@
         <v>51</v>
       </c>
       <c r="AK63" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL63" t="n">
         <v>7.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN63" t="n">
         <v>9.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP63" t="n">
         <v>19</v>
@@ -9674,10 +9690,10 @@
         <v>1.14</v>
       </c>
       <c r="H65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J65" t="n">
         <v>1.44</v>
@@ -9686,7 +9702,7 @@
         <v>3.2</v>
       </c>
       <c r="L65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
@@ -9701,10 +9717,10 @@
         <v>7.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R65" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -9721,28 +9737,28 @@
         <v>4.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA65" t="n">
         <v>13</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC65" t="n">
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
       </c>
       <c r="AF65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG65" t="n">
         <v>34</v>
@@ -9751,7 +9767,7 @@
         <v>19</v>
       </c>
       <c r="AI65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
@@ -9769,10 +9785,10 @@
         <v>29</v>
       </c>
       <c r="AO65" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ65" t="n">
         <v>51</v>
@@ -9830,10 +9846,10 @@
         <v>6.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O66" t="n">
         <v>1.5</v>
@@ -9842,18 +9858,18 @@
         <v>2.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R66" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W66" t="n">
         <v>1.57</v>
@@ -9919,10 +9935,10 @@
         <v>67</v>
       </c>
       <c r="AR66" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="67">
@@ -10525,22 +10541,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="H71" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I71" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="K71" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L71" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
@@ -10563,37 +10579,37 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="V71" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W71" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X71" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB71" t="n">
         <v>9.75</v>
       </c>
       <c r="AC71" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD71" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF71" t="n">
         <v>20</v>
@@ -10602,34 +10618,34 @@
         <v>8.25</v>
       </c>
       <c r="AH71" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI71" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ71" t="n">
         <v>45</v>
       </c>
       <c r="AK71" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM71" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO71" t="n">
         <v>70</v>
       </c>
       <c r="AP71" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AQ71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10972,16 +10988,16 @@
         <v>6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P74" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q74" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R74" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11007,7 +11023,7 @@
         <v>5.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC74" t="n">
         <v>11</v>
@@ -11102,7 +11118,7 @@
         <v>2.5</v>
       </c>
       <c r="J75" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K75" t="n">
         <v>2.05</v>
@@ -11114,7 +11130,7 @@
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O75" t="n">
         <v>1.36</v>
@@ -11137,10 +11153,10 @@
         <v>1.22</v>
       </c>
       <c r="W75" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X75" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y75" t="n">
         <v>1.83</v>
@@ -11149,13 +11165,13 @@
         <v>1.83</v>
       </c>
       <c r="AA75" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB75" t="n">
         <v>12</v>
       </c>
       <c r="AC75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD75" t="n">
         <v>26</v>
@@ -11167,7 +11183,7 @@
         <v>34</v>
       </c>
       <c r="AG75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH75" t="n">
         <v>6.5</v>
@@ -11194,7 +11210,7 @@
         <v>26</v>
       </c>
       <c r="AP75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ75" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -779,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>126</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -855,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -867,10 +867,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -938,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1008,10 +1008,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1022,31 +1022,31 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" t="n">
         <v>11</v>
       </c>
-      <c r="AB4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12</v>
-      </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>29</v>
@@ -1064,22 +1064,22 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1226,10 +1226,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -1294,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1423,30 +1423,30 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
         <v>1.57</v>
@@ -1512,10 +1512,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1646,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -1737,10 +1737,10 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
         <v>1.67</v>
@@ -1749,16 +1749,16 @@
         <v>2.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1788,16 +1788,16 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP9" t="n">
         <v>51</v>
@@ -1855,13 +1855,13 @@
         <v>1.8</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.67</v>
@@ -1920,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>101</v>
@@ -1944,7 +1944,7 @@
         <v>41</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2035,22 +2035,22 @@
         <v>3.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
         <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
@@ -2062,34 +2062,34 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2126,72 +2126,72 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE12" t="n">
         <v>34</v>
@@ -2200,7 +2200,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
@@ -2209,16 +2209,16 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN12" t="n">
         <v>8.5</v>
@@ -2227,10 +2227,10 @@
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -2486,13 +2486,13 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH14" t="n">
         <v>5.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2501,7 +2501,7 @@
         <v>351</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
@@ -2513,7 +2513,7 @@
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -3153,28 +3153,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3209,10 +3209,10 @@
         <v>1.83</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
         <v>12</v>
@@ -3221,16 +3221,16 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
         <v>8.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -3242,7 +3242,7 @@
         <v>301</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM19" t="n">
         <v>10</v>
@@ -3582,7 +3582,7 @@
         <v>4.33</v>
       </c>
       <c r="I22" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.05</v>
@@ -3600,28 +3600,28 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
         <v>1.29</v>
@@ -3630,13 +3630,13 @@
         <v>3.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB22" t="n">
         <v>8.5</v>
@@ -3648,13 +3648,13 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>8.5</v>
@@ -3669,7 +3669,7 @@
         <v>151</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>29</v>
@@ -3871,10 +3871,10 @@
         <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L24" t="n">
         <v>4.75</v>
@@ -3969,10 +3969,10 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="25">
@@ -4007,28 +4007,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L25" t="n">
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
         <v>1.62</v>
@@ -4045,10 +4045,10 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W25" t="n">
         <v>1.67</v>
@@ -4081,7 +4081,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH25" t="n">
         <v>5.5</v>
@@ -4108,7 +4108,7 @@
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
         <v>2.8</v>
@@ -4161,7 +4161,7 @@
         <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
@@ -4170,36 +4170,36 @@
         <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y26" t="n">
         <v>2</v>
@@ -4208,7 +4208,7 @@
         <v>1.73</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
         <v>8.5</v>
@@ -4226,7 +4226,7 @@
         <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH26" t="n">
         <v>5.5</v>
@@ -4235,7 +4235,7 @@
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK26" t="n">
         <v>351</v>
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>1.8</v>
@@ -4303,7 +4303,7 @@
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -4341,10 +4341,10 @@
         <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y27" t="n">
         <v>2</v>
@@ -4371,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
         <v>5.5</v>
@@ -4442,16 +4442,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
         <v>2.3</v>
@@ -4492,10 +4492,10 @@
         <v>3.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
@@ -4537,10 +4537,10 @@
         <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -4583,22 +4583,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -4607,16 +4607,16 @@
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4642,13 +4642,13 @@
         <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="n">
         <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -4672,7 +4672,7 @@
         <v>251</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>23</v>
@@ -4684,7 +4684,7 @@
         <v>51</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
@@ -4865,13 +4865,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>2.75</v>
@@ -4880,7 +4880,7 @@
         <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4919,19 +4919,19 @@
         <v>3.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA31" t="n">
         <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
         <v>21</v>
@@ -4955,13 +4955,13 @@
         <v>34</v>
       </c>
       <c r="AK31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
         <v>11</v>
@@ -4973,7 +4973,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5169,30 +5169,30 @@
         <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R33" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
         <v>1.44</v>
@@ -5295,13 +5295,13 @@
         <v>2.15</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
         <v>2.2</v>
@@ -5310,10 +5310,10 @@
         <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -5322,18 +5322,18 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
@@ -5348,7 +5348,7 @@
         <v>2.1</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="n">
         <v>11</v>
@@ -5363,10 +5363,10 @@
         <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5393,10 +5393,10 @@
         <v>34</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5457,16 +5457,16 @@
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S35" t="n">
         <v>1.8</v>
@@ -5475,10 +5475,10 @@
         <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W35" t="n">
         <v>1.25</v>
@@ -5493,7 +5493,7 @@
         <v>2.38</v>
       </c>
       <c r="AA35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
         <v>10</v>
@@ -5520,10 +5520,10 @@
         <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL35" t="n">
         <v>19</v>
@@ -5581,10 +5581,10 @@
         <v>1.78</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="J36" t="n">
         <v>2.3</v>
@@ -5593,7 +5593,7 @@
         <v>2.15</v>
       </c>
       <c r="L36" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -5624,22 +5624,22 @@
         <v>2.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z36" t="n">
         <v>1.78</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="n">
         <v>8.25</v>
       </c>
       <c r="AD36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -5663,16 +5663,16 @@
         <v>700</v>
       </c>
       <c r="AL36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM36" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN36" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP36" t="n">
         <v>45</v>
@@ -5715,44 +5715,44 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="H37" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P37" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R37" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W37" t="n">
         <v>1.42</v>
@@ -5767,25 +5767,25 @@
         <v>1.91</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AB37" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH37" t="n">
         <v>6.1</v>
@@ -5794,28 +5794,28 @@
         <v>13.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK37" t="n">
         <v>500</v>
       </c>
       <c r="AL37" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AM37" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AN37" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP37" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AQ37" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5993,22 +5993,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>2.88</v>
       </c>
       <c r="I39" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>1.91</v>
       </c>
       <c r="L39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
@@ -6043,10 +6043,10 @@
         <v>2.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA39" t="n">
         <v>7</v>
@@ -6082,16 +6082,16 @@
         <v>101</v>
       </c>
       <c r="AL39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN39" t="n">
         <v>11</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP39" t="n">
         <v>26</v>
@@ -6138,13 +6138,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J40" t="n">
         <v>1.95</v>
@@ -6159,7 +6159,7 @@
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O40" t="n">
         <v>1.29</v>
@@ -6176,16 +6176,16 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y40" t="n">
         <v>2.2</v>
@@ -6212,13 +6212,13 @@
         <v>29</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
         <v>81</v>
@@ -6227,13 +6227,13 @@
         <v>501</v>
       </c>
       <c r="AL40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM40" t="n">
         <v>34</v>
       </c>
       <c r="AN40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO40" t="n">
         <v>81</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J41" t="n">
         <v>2.75</v>
@@ -6294,13 +6294,13 @@
         <v>2.05</v>
       </c>
       <c r="L41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -6329,25 +6329,25 @@
         <v>2.63</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC41" t="n">
         <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
         <v>29</v>
@@ -6365,16 +6365,16 @@
         <v>51</v>
       </c>
       <c r="AK41" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO41" t="n">
         <v>41</v>
@@ -6420,16 +6420,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
@@ -6464,10 +6464,10 @@
         <v>1.22</v>
       </c>
       <c r="W42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y42" t="n">
         <v>1.95</v>
@@ -6488,13 +6488,13 @@
         <v>21</v>
       </c>
       <c r="AE42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH42" t="n">
         <v>6.5</v>
@@ -6509,7 +6509,7 @@
         <v>351</v>
       </c>
       <c r="AL42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM42" t="n">
         <v>15</v>
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L44" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -6716,10 +6716,10 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="V44" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6728,61 +6728,61 @@
         <v>2.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="AA44" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC44" t="n">
         <v>6.7</v>
       </c>
       <c r="AD44" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL44" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AM44" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN44" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP44" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ44" t="n">
         <v>32</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>30</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H49" t="n">
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J49" t="n">
         <v>1.91</v>
@@ -7398,7 +7398,7 @@
         <v>2.5</v>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7413,10 +7413,10 @@
         <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -7443,7 +7443,7 @@
         <v>1.91</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB49" t="n">
         <v>7.5</v>
@@ -7476,7 +7476,7 @@
         <v>251</v>
       </c>
       <c r="AL49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM49" t="n">
         <v>34</v>
@@ -7528,96 +7528,96 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
         <v>2.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
         <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="R50" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V50" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA50" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
         <v>29</v>
       </c>
       <c r="AE50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM50" t="n">
         <v>12</v>
@@ -7629,10 +7629,10 @@
         <v>23</v>
       </c>
       <c r="AP50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7814,22 +7814,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J52" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.38</v>
       </c>
       <c r="L52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7874,7 +7874,7 @@
         <v>2.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB52" t="n">
         <v>13</v>
@@ -7883,10 +7883,10 @@
         <v>9.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
         <v>21</v>
@@ -7898,7 +7898,7 @@
         <v>7.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ52" t="n">
         <v>34</v>
@@ -7962,10 +7962,10 @@
         <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J53" t="n">
         <v>2.75</v>
@@ -7980,31 +7980,31 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U53" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V53" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W53" t="n">
         <v>1.3</v>
@@ -8019,13 +8019,13 @@
         <v>2.38</v>
       </c>
       <c r="AA53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB53" t="n">
         <v>13</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
         <v>21</v>
@@ -8104,28 +8104,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H54" t="n">
         <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
         <v>1.4</v>
@@ -8134,18 +8134,18 @@
         <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R54" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W54" t="n">
         <v>1.5</v>
@@ -8154,22 +8154,22 @@
         <v>2.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC54" t="n">
         <v>9</v>
       </c>
       <c r="AD54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE54" t="n">
         <v>17</v>
@@ -8178,25 +8178,25 @@
         <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH54" t="n">
         <v>6.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK54" t="n">
         <v>1250</v>
       </c>
       <c r="AL54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN54" t="n">
         <v>15</v>
@@ -8205,7 +8205,7 @@
         <v>41</v>
       </c>
       <c r="AP54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ54" t="n">
         <v>41</v>
@@ -8710,10 +8710,10 @@
         <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
@@ -8722,18 +8722,18 @@
         <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R58" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V58" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W58" t="n">
         <v>1.44</v>
@@ -9274,22 +9274,22 @@
         <v>3.6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P62" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R62" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -9363,10 +9363,10 @@
         <v>41</v>
       </c>
       <c r="AR62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS62" t="n">
         <v>1.88</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>1.98</v>
       </c>
     </row>
     <row r="63">
@@ -9401,13 +9401,13 @@
         </is>
       </c>
       <c r="G63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.25</v>
       </c>
-      <c r="H63" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I63" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J63" t="n">
         <v>3.75</v>
@@ -9416,7 +9416,7 @@
         <v>2.05</v>
       </c>
       <c r="L63" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M63" t="n">
         <v>1.06</v>
@@ -9425,10 +9425,10 @@
         <v>8</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P63" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q63" t="n">
         <v>2.05</v>
@@ -9463,7 +9463,7 @@
         <v>17</v>
       </c>
       <c r="AC63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD63" t="n">
         <v>34</v>
@@ -9487,7 +9487,7 @@
         <v>51</v>
       </c>
       <c r="AK63" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL63" t="n">
         <v>7.5</v>
@@ -9542,22 +9542,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H64" t="n">
         <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K64" t="n">
         <v>2.38</v>
       </c>
       <c r="L64" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -9602,16 +9602,16 @@
         <v>2.38</v>
       </c>
       <c r="AA64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC64" t="n">
         <v>9</v>
       </c>
       <c r="AD64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE64" t="n">
         <v>15</v>
@@ -9620,7 +9620,7 @@
         <v>21</v>
       </c>
       <c r="AG64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH64" t="n">
         <v>7.5</v>
@@ -9641,16 +9641,16 @@
         <v>21</v>
       </c>
       <c r="AN64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ64" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>29</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9690,10 +9690,10 @@
         <v>1.14</v>
       </c>
       <c r="H65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
         <v>1.44</v>
@@ -9702,13 +9702,13 @@
         <v>3.2</v>
       </c>
       <c r="L65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="O65" t="n">
         <v>1.07</v>
@@ -9717,10 +9717,10 @@
         <v>7.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R65" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -9737,28 +9737,28 @@
         <v>4.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA65" t="n">
         <v>13</v>
       </c>
       <c r="AB65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC65" t="n">
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
       </c>
       <c r="AF65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG65" t="n">
         <v>34</v>
@@ -9767,7 +9767,7 @@
         <v>19</v>
       </c>
       <c r="AI65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
@@ -9785,10 +9785,10 @@
         <v>29</v>
       </c>
       <c r="AO65" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ65" t="n">
         <v>51</v>
@@ -9935,10 +9935,10 @@
         <v>67</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="67">
@@ -10396,22 +10396,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H70" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J70" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K70" t="n">
         <v>2.3</v>
       </c>
       <c r="L70" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M70" t="n">
         <v>1.04</v>
@@ -10459,19 +10459,19 @@
         <v>15</v>
       </c>
       <c r="AB70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC70" t="n">
         <v>15</v>
       </c>
       <c r="AD70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE70" t="n">
         <v>34</v>
       </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
         <v>13</v>
@@ -10492,13 +10492,13 @@
         <v>8.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN70" t="n">
         <v>8.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP70" t="n">
         <v>13</v>
@@ -10541,87 +10541,87 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="H71" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I71" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J71" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="K71" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L71" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="O71" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P71" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R71" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="V71" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W71" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X71" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="Y71" t="n">
         <v>1.57</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB71" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD71" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AE71" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF71" t="n">
         <v>20</v>
       </c>
       <c r="AG71" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ71" t="n">
         <v>45</v>
@@ -10630,22 +10630,22 @@
         <v>250</v>
       </c>
       <c r="AL71" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AM71" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AN71" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AO71" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AP71" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ71" t="n">
         <v>32</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>30</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10682,111 +10682,111 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H72" t="n">
         <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K72" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="M72" t="n">
         <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P72" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R72" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="V72" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W72" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X72" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z72" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AA72" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AB72" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AD72" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE72" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AF72" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG72" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH72" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI72" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ72" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK72" t="n">
         <v>300</v>
       </c>
       <c r="AL72" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM72" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AN72" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AO72" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AP72" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AQ72" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10976,16 +10976,16 @@
         <v>3.4</v>
       </c>
       <c r="K74" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L74" t="n">
         <v>4.33</v>
       </c>
       <c r="M74" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N74" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O74" t="n">
         <v>1.62</v>
@@ -11023,7 +11023,7 @@
         <v>5.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC74" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -716,28 +716,28 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -758,13 +758,13 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>26</v>
@@ -779,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>126</v>
@@ -788,13 +788,13 @@
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -875,10 +875,10 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -981,13 +981,13 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1002,10 +1002,10 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.9</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1172,10 +1172,10 @@
         <v>2.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB5" t="n">
         <v>7</v>
@@ -1208,13 +1208,13 @@
         <v>501</v>
       </c>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>51</v>
@@ -1226,10 +1226,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="6">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1302,10 +1302,10 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
         <v>1.33</v>
@@ -1320,7 +1320,7 @@
         <v>2.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>11</v>
@@ -1356,16 +1356,16 @@
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
@@ -1423,10 +1423,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1497,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
@@ -1737,10 +1737,10 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
         <v>1.67</v>
@@ -1758,7 +1758,7 @@
         <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -1767,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -1791,10 +1791,10 @@
         <v>8</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1864,16 +1864,16 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2138,16 +2138,16 @@
         <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2156,18 +2156,18 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
         <v>1.36</v>
@@ -2176,10 +2176,10 @@
         <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2191,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="n">
         <v>34</v>
@@ -2200,7 +2200,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
@@ -2209,16 +2209,16 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK12" t="n">
         <v>201</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN12" t="n">
         <v>8.5</v>
@@ -2227,10 +2227,10 @@
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2442,18 +2442,18 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
         <v>1.53</v>
@@ -2474,7 +2474,7 @@
         <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
@@ -2501,7 +2501,7 @@
         <v>351</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM14" t="n">
         <v>12</v>
@@ -2519,10 +2519,10 @@
         <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="15">
@@ -2587,16 +2587,16 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="T15" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="U15" t="n">
         <v>3.25</v>
@@ -2668,10 +2668,10 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -3115,10 +3115,10 @@
         <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="19">
@@ -3303,72 +3303,72 @@
         <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.85</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z20" t="n">
         <v>2.02</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH20" t="n">
         <v>6.9</v>
@@ -3383,19 +3383,19 @@
         <v>500</v>
       </c>
       <c r="AL20" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
         <v>50</v>
       </c>
       <c r="AP20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ20" t="n">
         <v>37</v>
@@ -3438,69 +3438,69 @@
         <v>1.17</v>
       </c>
       <c r="H21" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.53</v>
       </c>
       <c r="K21" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="L21" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="V21" t="n">
         <v>1.55</v>
       </c>
       <c r="W21" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB21" t="n">
         <v>5.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE21" t="n">
         <v>12.5</v>
@@ -3509,10 +3509,10 @@
         <v>45</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>40</v>
@@ -3524,22 +3524,22 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AP21" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AQ21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3600,28 +3600,28 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
         <v>1.29</v>
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -3880,10 +3880,10 @@
         <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.53</v>
@@ -3892,24 +3892,24 @@
         <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y24" t="n">
         <v>2.25</v>
@@ -3921,13 +3921,13 @@
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -3969,10 +3969,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="25">
@@ -4007,22 +4007,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>2.75</v>
       </c>
       <c r="I25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.4</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>1.14</v>
@@ -4063,31 +4063,31 @@
         <v>1.57</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH25" t="n">
         <v>5.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>81</v>
@@ -4096,19 +4096,19 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
@@ -4190,10 +4190,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W26" t="n">
         <v>1.53</v>
@@ -4259,10 +4259,10 @@
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="27">
@@ -4303,7 +4303,7 @@
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -4315,10 +4315,10 @@
         <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -4374,7 +4374,7 @@
         <v>6.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -4386,7 +4386,7 @@
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>11</v>
@@ -4404,10 +4404,10 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="28">
@@ -4472,10 +4472,10 @@
         <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4583,22 +4583,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -4607,30 +4607,30 @@
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y29" t="n">
         <v>1.8</v>
@@ -4642,16 +4642,16 @@
         <v>7.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="n">
         <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -4681,10 +4681,10 @@
         <v>15</v>
       </c>
       <c r="AO29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP29" t="n">
         <v>41</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>34</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
@@ -4724,22 +4724,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4754,18 +4754,18 @@
         <v>2.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
         <v>1.5</v>
@@ -4804,7 +4804,7 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>51</v>
@@ -4822,7 +4822,7 @@
         <v>9.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
         <v>19</v>
@@ -4865,22 +4865,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4889,34 +4889,34 @@
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y31" t="n">
         <v>1.5</v>
@@ -4937,19 +4937,19 @@
         <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>7.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4967,7 +4967,7 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
@@ -5010,22 +5010,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -5034,24 +5034,24 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
         <v>1.36</v>
@@ -5060,37 +5060,37 @@
         <v>3</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA32" t="n">
         <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
         <v>51</v>
@@ -5102,7 +5102,7 @@
         <v>15</v>
       </c>
       <c r="AM32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN32" t="n">
         <v>17</v>
@@ -5151,28 +5151,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H33" t="n">
         <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
@@ -5201,13 +5201,13 @@
         <v>2.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB33" t="n">
         <v>11</v>
@@ -5252,10 +5252,10 @@
         <v>29</v>
       </c>
       <c r="AP33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5298,31 +5298,31 @@
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
         <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L34" t="n">
         <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
         <v>2</v>
@@ -5330,10 +5330,10 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
@@ -5342,10 +5342,10 @@
         <v>3</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA34" t="n">
         <v>9</v>
@@ -5381,7 +5381,7 @@
         <v>151</v>
       </c>
       <c r="AL34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM34" t="n">
         <v>17</v>
@@ -5433,13 +5433,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
         <v>2.1</v>
@@ -5448,25 +5448,25 @@
         <v>2.6</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R35" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S35" t="n">
         <v>1.8</v>
@@ -5475,10 +5475,10 @@
         <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
         <v>1.25</v>
@@ -5496,13 +5496,13 @@
         <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
         <v>8.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
         <v>12</v>
@@ -5538,7 +5538,7 @@
         <v>51</v>
       </c>
       <c r="AP35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ35" t="n">
         <v>29</v>
@@ -5855,16 +5855,16 @@
         <v>3.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>4.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L38" t="n">
         <v>2.88</v>
@@ -5873,7 +5873,7 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5944,13 +5944,13 @@
         <v>6</v>
       </c>
       <c r="AM38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN38" t="n">
         <v>9.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP38" t="n">
         <v>19</v>
@@ -5959,10 +5959,10 @@
         <v>34</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="39">
@@ -6142,22 +6142,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -6166,30 +6166,30 @@
         <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y40" t="n">
         <v>2.2</v>
@@ -6213,31 +6213,31 @@
         <v>13</v>
       </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
         <v>81</v>
       </c>
       <c r="AK40" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM40" t="n">
         <v>34</v>
       </c>
       <c r="AN40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO40" t="n">
         <v>81</v>
@@ -6289,7 +6289,7 @@
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
         <v>2.63</v>
@@ -6301,22 +6301,22 @@
         <v>4.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6823,10 +6823,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
         <v>3.9</v>
@@ -6835,10 +6835,10 @@
         <v>2.37</v>
       </c>
       <c r="K45" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L45" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -6849,15 +6849,15 @@
         <v>2.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V45" t="n">
         <v>1.28</v>
@@ -6884,7 +6884,7 @@
         <v>8.25</v>
       </c>
       <c r="AD45" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE45" t="n">
         <v>15</v>
@@ -6893,13 +6893,13 @@
         <v>28</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ45" t="n">
         <v>75</v>
@@ -6911,7 +6911,7 @@
         <v>11</v>
       </c>
       <c r="AM45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN45" t="n">
         <v>13</v>
@@ -6969,10 +6969,10 @@
         <v>5.4</v>
       </c>
       <c r="J46" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K46" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="L46" t="n">
         <v>5.4</v>
@@ -7097,40 +7097,40 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P47" t="n">
         <v>2.63</v>
       </c>
-      <c r="K47" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>7</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q47" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7147,25 +7147,25 @@
         <v>2.38</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF47" t="n">
         <v>41</v>
@@ -7174,10 +7174,10 @@
         <v>7</v>
       </c>
       <c r="AH47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ47" t="n">
         <v>81</v>
@@ -7186,28 +7186,28 @@
         <v>101</v>
       </c>
       <c r="AL47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN47" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO47" t="n">
         <v>51</v>
       </c>
       <c r="AP47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="48">
@@ -7390,7 +7390,7 @@
         <v>1.38</v>
       </c>
       <c r="H49" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
         <v>7</v>
@@ -7411,16 +7411,16 @@
         <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -7429,13 +7429,13 @@
         <v>1.85</v>
       </c>
       <c r="U49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W49" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X49" t="n">
         <v>3.4</v>
@@ -7447,7 +7447,7 @@
         <v>1.8</v>
       </c>
       <c r="AA49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB49" t="n">
         <v>7</v>
@@ -7495,7 +7495,7 @@
         <v>51</v>
       </c>
       <c r="AQ49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7532,81 +7532,81 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
         <v>2.55</v>
       </c>
       <c r="J50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
         <v>3.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R50" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W50" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X50" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
         <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF50" t="n">
         <v>29</v>
       </c>
-      <c r="AE50" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>34</v>
-      </c>
       <c r="AG50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
         <v>6.5</v>
@@ -7618,10 +7618,10 @@
         <v>51</v>
       </c>
       <c r="AK50" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL50" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM50" t="n">
         <v>12</v>
@@ -7630,13 +7630,13 @@
         <v>10</v>
       </c>
       <c r="AO50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP50" t="n">
         <v>21</v>
       </c>
       <c r="AQ50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7721,7 +7721,7 @@
         <v>1.67</v>
       </c>
       <c r="W51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X51" t="n">
         <v>3.75</v>
@@ -7821,31 +7821,31 @@
         <v>2.2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J52" t="n">
         <v>2.75</v>
       </c>
       <c r="K52" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O52" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q52" t="n">
         <v>1.53</v>
@@ -7854,28 +7854,28 @@
         <v>2.4</v>
       </c>
       <c r="S52" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T52" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V52" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W52" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X52" t="n">
         <v>3.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA52" t="n">
         <v>12</v>
@@ -7896,7 +7896,7 @@
         <v>21</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
@@ -7911,10 +7911,10 @@
         <v>101</v>
       </c>
       <c r="AL52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN52" t="n">
         <v>11</v>
@@ -7966,7 +7966,7 @@
         <v>2.38</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
         <v>2.7</v>
@@ -7975,52 +7975,52 @@
         <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L53" t="n">
         <v>3.25</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T53" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X53" t="n">
         <v>3.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA53" t="n">
         <v>10</v>
@@ -8041,7 +8041,7 @@
         <v>23</v>
       </c>
       <c r="AG53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
         <v>7</v>
@@ -8696,48 +8696,48 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H58" t="n">
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J58" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R58" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W58" t="n">
         <v>1.44</v>
@@ -8746,31 +8746,31 @@
         <v>2.63</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC58" t="n">
         <v>8.5</v>
       </c>
       <c r="AD58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE58" t="n">
         <v>15</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>17</v>
       </c>
       <c r="AF58" t="n">
         <v>29</v>
       </c>
       <c r="AG58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH58" t="n">
         <v>7</v>
@@ -8782,22 +8782,22 @@
         <v>51</v>
       </c>
       <c r="AK58" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AL58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO58" t="n">
         <v>41</v>
       </c>
       <c r="AP58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ58" t="n">
         <v>41</v>
@@ -8840,63 +8840,63 @@
         <v>2.2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O59" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R59" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V59" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X59" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC59" t="n">
         <v>9.5</v>
@@ -8905,46 +8905,50 @@
         <v>21</v>
       </c>
       <c r="AE59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF59" t="n">
         <v>34</v>
       </c>
       <c r="AG59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH59" t="n">
         <v>6</v>
       </c>
       <c r="AI59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK59" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AL59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM59" t="n">
         <v>17</v>
       </c>
       <c r="AN59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO59" t="n">
         <v>41</v>
       </c>
       <c r="AP59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ59" t="n">
         <v>41</v>
       </c>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
+      <c r="AR59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9119,28 +9123,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H61" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I61" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K61" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L61" t="n">
         <v>6</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
         <v>1.22</v>
@@ -9149,10 +9153,10 @@
         <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R61" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9184,22 +9188,22 @@
         <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE61" t="n">
         <v>12</v>
       </c>
       <c r="AF61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ61" t="n">
         <v>51</v>
@@ -9208,16 +9212,16 @@
         <v>251</v>
       </c>
       <c r="AL61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN61" t="n">
         <v>17</v>
       </c>
-      <c r="AM61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>19</v>
-      </c>
       <c r="AO61" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP61" t="n">
         <v>41</v>
@@ -9263,10 +9267,10 @@
         <v>2.5</v>
       </c>
       <c r="H62" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>3.4</v>
@@ -9275,48 +9279,48 @@
         <v>1.91</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M62" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R62" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB62" t="n">
         <v>11</v>
@@ -9325,22 +9329,22 @@
         <v>11</v>
       </c>
       <c r="AD62" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE62" t="n">
         <v>23</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>26</v>
       </c>
       <c r="AF62" t="n">
         <v>41</v>
       </c>
       <c r="AG62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH62" t="n">
         <v>6</v>
       </c>
-      <c r="AH62" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AI62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ62" t="n">
         <v>67</v>
@@ -9355,22 +9359,22 @@
         <v>13</v>
       </c>
       <c r="AN62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO62" t="n">
         <v>34</v>
       </c>
       <c r="AP62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ62" t="n">
         <v>41</v>
       </c>
       <c r="AR62" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="63">
@@ -9405,60 +9409,60 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K63" t="n">
         <v>2.1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2.05</v>
       </c>
       <c r="L63" t="n">
         <v>2.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P63" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R63" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V63" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W63" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X63" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AA63" t="n">
         <v>10</v>
@@ -9473,13 +9477,13 @@
         <v>34</v>
       </c>
       <c r="AE63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF63" t="n">
         <v>34</v>
       </c>
       <c r="AG63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH63" t="n">
         <v>6.5</v>
@@ -9491,19 +9495,19 @@
         <v>51</v>
       </c>
       <c r="AK63" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN63" t="n">
         <v>9.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP63" t="n">
         <v>19</v>
@@ -9546,31 +9550,31 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H64" t="n">
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K64" t="n">
         <v>2.3</v>
       </c>
       <c r="L64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N64" t="n">
         <v>10</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P64" t="n">
         <v>4.33</v>
@@ -9582,16 +9586,16 @@
         <v>2.2</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T64" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U64" t="n">
         <v>2.5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W64" t="n">
         <v>1.3</v>
@@ -9600,25 +9604,25 @@
         <v>3.4</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF64" t="n">
         <v>21</v>
@@ -9633,10 +9637,10 @@
         <v>12</v>
       </c>
       <c r="AJ64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK64" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL64" t="n">
         <v>13</v>
@@ -9651,10 +9655,10 @@
         <v>34</v>
       </c>
       <c r="AP64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9691,7 +9695,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H65" t="n">
         <v>9</v>
@@ -9712,7 +9716,7 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O65" t="n">
         <v>1.08</v>
@@ -9721,42 +9725,42 @@
         <v>7</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V65" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W65" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="X65" t="n">
         <v>4.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC65" t="n">
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
@@ -9786,7 +9790,7 @@
         <v>51</v>
       </c>
       <c r="AN65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO65" t="n">
         <v>151</v>
@@ -9832,13 +9836,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H66" t="n">
         <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J66" t="n">
         <v>2.4</v>
@@ -9850,10 +9854,10 @@
         <v>6.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O66" t="n">
         <v>1.53</v>
@@ -9876,16 +9880,16 @@
         <v>1.14</v>
       </c>
       <c r="W66" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA66" t="n">
         <v>4.75</v>
@@ -9912,7 +9916,7 @@
         <v>7</v>
       </c>
       <c r="AI66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ66" t="n">
         <v>101</v>
@@ -9939,10 +9943,10 @@
         <v>67</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="67">
@@ -9977,99 +9981,99 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H67" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I67" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K67" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="M67" t="n">
         <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="O67" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P67" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="V67" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W67" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X67" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z67" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AA67" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD67" t="n">
         <v>40</v>
       </c>
       <c r="AE67" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF67" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG67" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AH67" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ67" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK67" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL67" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AM67" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AN67" t="n">
         <v>8.75</v>
@@ -10078,10 +10082,10 @@
         <v>21</v>
       </c>
       <c r="AP67" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10400,88 +10404,88 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N70" t="n">
+        <v>15</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X70" t="n">
         <v>3.5</v>
       </c>
-      <c r="I70" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N70" t="n">
-        <v>13</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U70" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W70" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X70" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y70" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC70" t="n">
         <v>15</v>
       </c>
-      <c r="AB70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>13</v>
-      </c>
       <c r="AD70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI70" t="n">
         <v>13</v>
@@ -10490,10 +10494,10 @@
         <v>41</v>
       </c>
       <c r="AK70" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM70" t="n">
         <v>10</v>
@@ -10502,10 +10506,10 @@
         <v>8.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ70" t="n">
         <v>21</v>
@@ -10827,54 +10831,54 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I73" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="J73" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K73" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="L73" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O73" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P73" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R73" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="V73" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W73" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X73" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y73" t="n">
         <v>1.5</v>
@@ -10883,31 +10887,31 @@
         <v>2.4</v>
       </c>
       <c r="AA73" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AE73" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF73" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG73" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH73" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AI73" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ73" t="n">
         <v>40</v>
@@ -10919,19 +10923,19 @@
         <v>11</v>
       </c>
       <c r="AM73" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AN73" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO73" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -11116,10 +11120,10 @@
         <v>2.8</v>
       </c>
       <c r="H75" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I75" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J75" t="n">
         <v>3.6</v>
@@ -11128,51 +11132,51 @@
         <v>2.05</v>
       </c>
       <c r="L75" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M75" t="n">
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R75" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V75" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X75" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC75" t="n">
         <v>11</v>
@@ -11181,43 +11185,43 @@
         <v>29</v>
       </c>
       <c r="AE75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF75" t="n">
         <v>34</v>
       </c>
       <c r="AG75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH75" t="n">
         <v>6.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ75" t="n">
         <v>51</v>
       </c>
       <c r="AK75" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM75" t="n">
         <v>11</v>
       </c>
       <c r="AN75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP75" t="n">
         <v>21</v>
       </c>
       <c r="AQ75" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
@@ -716,28 +716,28 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -758,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>34</v>
@@ -855,10 +855,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -875,10 +875,10 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -896,7 +896,7 @@
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -1008,18 +1008,18 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
         <v>1.36</v>
@@ -1175,7 +1175,7 @@
         <v>1.57</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="n">
         <v>7</v>
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1214,7 +1214,7 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>51</v>
@@ -1226,10 +1226,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="6">
@@ -1264,40 +1264,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1335,10 +1335,10 @@
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1356,10 +1356,10 @@
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1423,10 +1423,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1497,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1556,7 +1556,7 @@
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1565,7 +1565,7 @@
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
@@ -1586,10 +1586,10 @@
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
@@ -1610,13 +1610,13 @@
         <v>1.57</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>34</v>
@@ -1628,10 +1628,10 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1655,7 +1655,7 @@
         <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1699,28 +1699,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
         <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -1758,13 +1758,13 @@
         <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
@@ -1788,10 +1788,10 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN9" t="n">
         <v>15</v>
@@ -2191,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE12" t="n">
         <v>34</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
@@ -2442,18 +2442,18 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
         <v>1.53</v>
@@ -2468,7 +2468,7 @@
         <v>1.73</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
         <v>13</v>
@@ -2480,7 +2480,7 @@
         <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -2504,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN14" t="n">
         <v>11</v>
@@ -2519,10 +2519,10 @@
         <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="15">
@@ -3022,10 +3022,10 @@
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -3058,10 +3058,10 @@
         <v>2.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -3097,7 +3097,7 @@
         <v>101</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
@@ -3115,10 +3115,10 @@
         <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="19">
@@ -3156,60 +3156,60 @@
         <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
         <v>15</v>
@@ -3221,16 +3221,16 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -3239,25 +3239,25 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN19" t="n">
         <v>10</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>9.5</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3294,28 +3294,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="K20" t="n">
         <v>2.12</v>
       </c>
       <c r="L20" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -3324,7 +3324,7 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
         <v>1.88</v>
@@ -3347,28 +3347,28 @@
         <v>1.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>6.9</v>
@@ -3383,22 +3383,22 @@
         <v>500</v>
       </c>
       <c r="AL20" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM20" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3435,22 +3435,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I21" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="K21" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="L21" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3473,25 +3473,25 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X21" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB21" t="n">
         <v>5.8</v>
@@ -3524,16 +3524,16 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AP21" t="n">
         <v>350</v>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
         <v>5.5</v>
@@ -3600,28 +3600,28 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
         <v>1.29</v>
@@ -3636,7 +3636,7 @@
         <v>2.05</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
         <v>8.5</v>
@@ -3645,10 +3645,10 @@
         <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3669,10 +3669,10 @@
         <v>151</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>17</v>
@@ -3862,16 +3862,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>1.91</v>
@@ -3939,7 +3939,7 @@
         <v>6.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
@@ -4007,16 +4007,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
@@ -4051,31 +4051,31 @@
         <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
         <v>11</v>
       </c>
       <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
         <v>26</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>29</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -4099,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
         <v>13</v>
@@ -4152,28 +4152,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -4182,10 +4182,10 @@
         <v>2.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4211,13 +4211,13 @@
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
@@ -4241,13 +4241,13 @@
         <v>351</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>41</v>
@@ -4259,10 +4259,10 @@
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -4309,7 +4309,7 @@
         <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
         <v>3.4</v>
@@ -4321,10 +4321,10 @@
         <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
         <v>2.5</v>
@@ -4347,10 +4347,10 @@
         <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA27" t="n">
         <v>7.5</v>
@@ -4398,16 +4398,16 @@
         <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="28">
@@ -4466,24 +4466,24 @@
         <v>13</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
         <v>1.33</v>
@@ -4583,22 +4583,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
         <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K29" t="n">
         <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -4613,18 +4613,18 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W29" t="n">
         <v>1.36</v>
@@ -4642,7 +4642,7 @@
         <v>7.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC29" t="n">
         <v>8.5</v>
@@ -4654,7 +4654,7 @@
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -4669,7 +4669,7 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL29" t="n">
         <v>13</v>
@@ -4684,7 +4684,7 @@
         <v>51</v>
       </c>
       <c r="AP29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
@@ -4727,10 +4727,10 @@
         <v>3.9</v>
       </c>
       <c r="H30" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J30" t="n">
         <v>4.33</v>
@@ -4742,10 +4742,10 @@
         <v>2.88</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -4774,13 +4774,13 @@
         <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
         <v>19</v>
@@ -4798,10 +4798,10 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4825,13 +4825,17 @@
         <v>19</v>
       </c>
       <c r="AP30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>34</v>
       </c>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
+      <c r="AR30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4865,22 +4869,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4889,34 +4893,34 @@
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y31" t="n">
         <v>1.5</v>
@@ -4937,19 +4941,19 @@
         <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4967,13 +4971,13 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5010,16 +5014,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K32" t="n">
         <v>2.3</v>
@@ -5031,7 +5035,7 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
         <v>1.22</v>
@@ -5054,49 +5058,49 @@
         <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA32" t="n">
         <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ32" t="n">
         <v>51</v>
       </c>
       <c r="AK32" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL32" t="n">
         <v>15</v>
@@ -5151,16 +5155,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H33" t="n">
         <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
@@ -5169,22 +5173,22 @@
         <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5231,7 +5235,7 @@
         <v>6</v>
       </c>
       <c r="AI33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ33" t="n">
         <v>51</v>
@@ -5243,13 +5247,13 @@
         <v>8</v>
       </c>
       <c r="AM33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP33" t="n">
         <v>26</v>
@@ -5313,7 +5317,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -5322,10 +5326,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5882,10 +5886,10 @@
         <v>2.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5959,10 +5963,10 @@
         <v>34</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="39">
@@ -5997,13 +6001,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J39" t="n">
         <v>3.75</v>
@@ -6086,10 +6090,10 @@
         <v>101</v>
       </c>
       <c r="AL39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN39" t="n">
         <v>11</v>
@@ -6154,16 +6158,16 @@
         <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L40" t="n">
         <v>7</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
         <v>1.3</v>
@@ -6172,18 +6176,18 @@
         <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W40" t="n">
         <v>1.4</v>
@@ -6207,7 +6211,7 @@
         <v>8.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE40" t="n">
         <v>13</v>
@@ -6228,7 +6232,7 @@
         <v>81</v>
       </c>
       <c r="AK40" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL40" t="n">
         <v>13</v>
@@ -6283,22 +6287,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K41" t="n">
         <v>2.05</v>
       </c>
       <c r="L41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
@@ -6307,24 +6311,24 @@
         <v>9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W41" t="n">
         <v>1.44</v>
@@ -6342,13 +6346,13 @@
         <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
         <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE41" t="n">
         <v>17</v>
@@ -6360,16 +6364,16 @@
         <v>8</v>
       </c>
       <c r="AH41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
         <v>51</v>
       </c>
       <c r="AK41" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL41" t="n">
         <v>11</v>
@@ -6381,10 +6385,10 @@
         <v>15</v>
       </c>
       <c r="AO41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP41" t="n">
         <v>41</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>34</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -7097,16 +7101,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
         <v>4.75</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -7141,28 +7145,28 @@
         <v>1.17</v>
       </c>
       <c r="W47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X47" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA47" t="n">
         <v>5</v>
       </c>
       <c r="AB47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC47" t="n">
         <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE47" t="n">
         <v>17</v>
@@ -7177,7 +7181,7 @@
         <v>7</v>
       </c>
       <c r="AI47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ47" t="n">
         <v>81</v>
@@ -7192,22 +7196,22 @@
         <v>23</v>
       </c>
       <c r="AN47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO47" t="n">
         <v>51</v>
       </c>
       <c r="AP47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="48">
@@ -7242,16 +7246,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H48" t="n">
         <v>2.9</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
@@ -7260,10 +7264,10 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -7298,13 +7302,13 @@
         <v>1.62</v>
       </c>
       <c r="AA48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB48" t="n">
         <v>10</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD48" t="n">
         <v>23</v>
@@ -7387,10 +7391,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I49" t="n">
         <v>7</v>
@@ -7411,16 +7415,16 @@
         <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -7429,13 +7433,13 @@
         <v>1.85</v>
       </c>
       <c r="U49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W49" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X49" t="n">
         <v>3.4</v>
@@ -7447,7 +7451,7 @@
         <v>1.8</v>
       </c>
       <c r="AA49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB49" t="n">
         <v>7</v>
@@ -7532,22 +7536,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K50" t="n">
         <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7576,10 +7580,10 @@
         <v>1.29</v>
       </c>
       <c r="W50" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X50" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Y50" t="n">
         <v>1.8</v>
@@ -7588,22 +7592,22 @@
         <v>1.91</v>
       </c>
       <c r="AA50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG50" t="n">
         <v>10</v>
@@ -7621,19 +7625,19 @@
         <v>251</v>
       </c>
       <c r="AL50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ50" t="n">
         <v>29</v>
@@ -7721,7 +7725,7 @@
         <v>1.67</v>
       </c>
       <c r="W51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X51" t="n">
         <v>3.75</v>
@@ -7836,10 +7840,10 @@
         <v>3.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O52" t="n">
         <v>1.14</v>
@@ -7854,19 +7858,19 @@
         <v>2.4</v>
       </c>
       <c r="S52" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T52" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W52" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X52" t="n">
         <v>3.5</v>
@@ -7981,22 +7985,22 @@
         <v>3.25</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
         <v>2.05</v>
@@ -8005,13 +8009,13 @@
         <v>1.8</v>
       </c>
       <c r="U53" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W53" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X53" t="n">
         <v>3.25</v>
@@ -8274,7 +8278,7 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -8291,10 +8295,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V55" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W55" t="n">
         <v>1.53</v>
@@ -8360,10 +8364,10 @@
         <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="56">
@@ -8398,70 +8402,70 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V56" t="n">
         <v>1.29</v>
       </c>
-      <c r="P56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W56" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
@@ -8470,49 +8474,49 @@
         <v>12</v>
       </c>
       <c r="AE56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
         <v>29</v>
       </c>
       <c r="AG56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH56" t="n">
         <v>7</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK56" t="n">
         <v>301</v>
       </c>
       <c r="AL56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM56" t="n">
         <v>29</v>
       </c>
       <c r="AN56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP56" t="n">
         <v>41</v>
       </c>
       <c r="AQ56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="57">
@@ -8714,10 +8718,10 @@
         <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
         <v>1.3</v>
@@ -8740,10 +8744,10 @@
         <v>1.29</v>
       </c>
       <c r="W58" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="X58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y58" t="n">
         <v>1.91</v>
@@ -8755,7 +8759,7 @@
         <v>7</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC58" t="n">
         <v>8.5</v>
@@ -8770,13 +8774,13 @@
         <v>29</v>
       </c>
       <c r="AG58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH58" t="n">
         <v>7</v>
       </c>
       <c r="AI58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ58" t="n">
         <v>51</v>
@@ -8982,13 +8986,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H60" t="n">
         <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J60" t="n">
         <v>6</v>
@@ -8997,13 +9001,13 @@
         <v>2.05</v>
       </c>
       <c r="L60" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
         <v>1.4</v>
@@ -9020,13 +9024,13 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X60" t="n">
         <v>2.5</v>
@@ -9038,19 +9042,19 @@
         <v>1.62</v>
       </c>
       <c r="AA60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB60" t="n">
         <v>26</v>
       </c>
       <c r="AC60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD60" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE60" t="n">
         <v>51</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>41</v>
       </c>
       <c r="AF60" t="n">
         <v>51</v>
@@ -9065,7 +9069,7 @@
         <v>21</v>
       </c>
       <c r="AJ60" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="n">
         <v>351</v>
@@ -9074,7 +9078,7 @@
         <v>5.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN60" t="n">
         <v>9</v>
@@ -9083,7 +9087,7 @@
         <v>12</v>
       </c>
       <c r="AP60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ60" t="n">
         <v>34</v>
@@ -9264,19 +9268,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H62" t="n">
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L62" t="n">
         <v>3.75</v>
@@ -9288,10 +9292,10 @@
         <v>7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P62" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q62" t="n">
         <v>2.5</v>
@@ -9326,10 +9330,10 @@
         <v>11</v>
       </c>
       <c r="AC62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE62" t="n">
         <v>23</v>
@@ -9338,7 +9342,7 @@
         <v>41</v>
       </c>
       <c r="AG62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH62" t="n">
         <v>6</v>
@@ -9371,10 +9375,10 @@
         <v>41</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="63">
@@ -9695,13 +9699,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="H65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J65" t="n">
         <v>1.4</v>
@@ -9710,7 +9714,7 @@
         <v>3.4</v>
       </c>
       <c r="L65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
@@ -9719,24 +9723,24 @@
         <v>17</v>
       </c>
       <c r="O65" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R65" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W65" t="n">
         <v>1.13</v>
@@ -9745,43 +9749,43 @@
         <v>4.5</v>
       </c>
       <c r="Y65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z65" t="n">
         <v>1.91</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1.8</v>
       </c>
       <c r="AA65" t="n">
         <v>13</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC65" t="n">
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
       </c>
       <c r="AF65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI65" t="n">
         <v>26</v>
       </c>
-      <c r="AG65" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AL65" t="n">
         <v>34</v>
@@ -9790,16 +9794,16 @@
         <v>51</v>
       </c>
       <c r="AN65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO65" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ65" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9836,28 +9840,28 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I66" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K66" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L66" t="n">
         <v>6.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.53</v>
@@ -9880,7 +9884,7 @@
         <v>1.14</v>
       </c>
       <c r="W66" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X66" t="n">
         <v>2.2</v>
@@ -9898,10 +9902,10 @@
         <v>6.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE66" t="n">
         <v>19</v>
@@ -9981,22 +9985,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I67" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="K67" t="n">
         <v>2.07</v>
       </c>
       <c r="L67" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="M67" t="n">
         <v>1.06</v>
@@ -10025,34 +10029,34 @@
         <v>1.31</v>
       </c>
       <c r="W67" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X67" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AA67" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB67" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD67" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AE67" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF67" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG67" t="n">
         <v>7.1</v>
@@ -10061,7 +10065,7 @@
         <v>6.4</v>
       </c>
       <c r="AI67" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ67" t="n">
         <v>65</v>
@@ -10070,22 +10074,22 @@
         <v>500</v>
       </c>
       <c r="AL67" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AM67" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP67" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AQ67" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10122,16 +10126,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
         <v>3.15</v>
       </c>
       <c r="J68" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K68" t="n">
         <v>2.25</v>
@@ -10143,7 +10147,7 @@
         <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O68" t="n">
         <v>1.19</v>
@@ -10169,7 +10173,7 @@
         <v>1.31</v>
       </c>
       <c r="X68" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Y68" t="n">
         <v>1.5</v>
@@ -10178,13 +10182,13 @@
         <v>2.42</v>
       </c>
       <c r="AA68" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB68" t="n">
         <v>13</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD68" t="n">
         <v>22</v>
@@ -10196,7 +10200,7 @@
         <v>19</v>
       </c>
       <c r="AG68" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH68" t="n">
         <v>7.1</v>
@@ -10404,22 +10408,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
         <v>3.8</v>
       </c>
       <c r="I70" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J70" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L70" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
@@ -10428,49 +10432,49 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R70" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S70" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T70" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U70" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V70" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W70" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA70" t="n">
         <v>17</v>
       </c>
       <c r="AB70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD70" t="n">
         <v>51</v>
@@ -10479,10 +10483,10 @@
         <v>34</v>
       </c>
       <c r="AF70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH70" t="n">
         <v>7.5</v>
@@ -10494,22 +10498,22 @@
         <v>41</v>
       </c>
       <c r="AK70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL70" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN70" t="n">
         <v>8.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ70" t="n">
         <v>21</v>
@@ -10831,19 +10835,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H73" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I73" t="n">
         <v>2.05</v>
       </c>
       <c r="J73" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K73" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L73" t="n">
         <v>2.52</v>
@@ -10852,33 +10856,33 @@
         <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P73" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R73" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="V73" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W73" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X73" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Y73" t="n">
         <v>1.5</v>
@@ -10899,16 +10903,16 @@
         <v>37</v>
       </c>
       <c r="AE73" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF73" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG73" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH73" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI73" t="n">
         <v>12</v>
@@ -10923,13 +10927,13 @@
         <v>11</v>
       </c>
       <c r="AM73" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN73" t="n">
         <v>8.75</v>
       </c>
       <c r="AO73" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP73" t="n">
         <v>14.5</v>
@@ -10972,16 +10976,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J74" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.25</v>
       </c>
       <c r="K74" t="n">
         <v>1.83</v>
@@ -11028,7 +11032,7 @@
         <v>1.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB74" t="n">
         <v>9</v>
@@ -11040,7 +11044,7 @@
         <v>21</v>
       </c>
       <c r="AE74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF74" t="n">
         <v>41</v>
@@ -11061,7 +11065,7 @@
         <v>101</v>
       </c>
       <c r="AL74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM74" t="n">
         <v>15</v>
@@ -11117,7 +11121,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H75" t="n">
         <v>3.3</v>
@@ -11135,10 +11139,10 @@
         <v>3.1</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O75" t="n">
         <v>1.33</v>
@@ -11176,7 +11180,7 @@
         <v>8.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC75" t="n">
         <v>11</v>
@@ -11191,7 +11195,7 @@
         <v>34</v>
       </c>
       <c r="AG75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH75" t="n">
         <v>6.5</v>
@@ -11215,7 +11219,7 @@
         <v>9.5</v>
       </c>
       <c r="AO75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP75" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -716,28 +716,28 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -764,7 +764,7 @@
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>26</v>
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -788,13 +788,13 @@
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -837,63 +837,63 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
         <v>3.75</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
@@ -902,40 +902,40 @@
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM3" t="n">
         <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>17</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -981,10 +981,10 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -1002,36 +1002,36 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.4</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.36</v>
-      </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -1052,10 +1052,10 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM4" t="n">
         <v>12</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>1.57</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB5" t="n">
         <v>7</v>
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1208,7 +1208,7 @@
         <v>501</v>
       </c>
       <c r="AL5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1264,48 +1264,48 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
         <v>1.33</v>
@@ -1329,16 +1329,16 @@
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1356,10 +1356,10 @@
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1405,81 +1405,81 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA7" t="n">
         <v>5</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
         <v>6.5</v>
@@ -1488,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>501</v>
@@ -1500,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>51</v>
@@ -1512,10 +1512,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="8">
@@ -1580,16 +1580,16 @@
         <v>2.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.17</v>
@@ -1758,13 +1758,13 @@
         <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
@@ -1788,10 +1788,10 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
         <v>15</v>
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2150,36 +2150,36 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.98</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2194,37 +2194,37 @@
         <v>51</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>51</v>
       </c>
       <c r="AK12" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
         <v>8.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2303,10 +2303,10 @@
         <v>2.35</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
         <v>2.38</v>
@@ -2321,16 +2321,16 @@
         <v>3.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2339,13 +2339,13 @@
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>8</v>
@@ -2360,10 +2360,10 @@
         <v>126</v>
       </c>
       <c r="AL13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN13" t="n">
         <v>8.5</v>
@@ -2668,7 +2668,7 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS15" t="n">
         <v>2.7</v>
@@ -3022,10 +3022,10 @@
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -3721,13 +3721,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
         <v>5.5</v>
@@ -3736,7 +3736,7 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3745,24 +3745,24 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -3819,7 +3819,7 @@
         <v>8.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
@@ -3862,99 +3862,99 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
         <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.44</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE24" t="n">
         <v>19</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AH24" t="n">
-        <v>6</v>
-      </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK24" t="n">
         <v>501</v>
       </c>
       <c r="AL24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
@@ -3969,10 +3969,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4007,16 +4007,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
@@ -4025,10 +4025,10 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
         <v>1.57</v>
@@ -4051,31 +4051,31 @@
         <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -4099,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>13</v>
@@ -4152,22 +4152,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M26" t="n">
         <v>1.11</v>
@@ -4176,24 +4176,24 @@
         <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
         <v>1.53</v>
@@ -4202,58 +4202,58 @@
         <v>2.38</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
         <v>6.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>51</v>
       </c>
       <c r="AK26" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL26" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -4297,22 +4297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
@@ -4321,10 +4321,10 @@
         <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
         <v>2.5</v>
@@ -4347,22 +4347,22 @@
         <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC27" t="n">
         <v>13</v>
       </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
@@ -4374,7 +4374,7 @@
         <v>6.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -4386,28 +4386,28 @@
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="28">
@@ -4442,48 +4442,48 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
         <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
         <v>1.33</v>
@@ -4501,16 +4501,16 @@
         <v>11</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>23</v>
@@ -4522,7 +4522,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -4531,16 +4531,16 @@
         <v>126</v>
       </c>
       <c r="AL28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN28" t="n">
         <v>12</v>
       </c>
-      <c r="AM28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>11</v>
-      </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -4583,54 +4583,54 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1.73</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>11</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.85</v>
-      </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y29" t="n">
         <v>1.8</v>
@@ -4642,13 +4642,13 @@
         <v>7.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="n">
         <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -4657,10 +4657,10 @@
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
         <v>15</v>
@@ -4669,22 +4669,22 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>51</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
@@ -4724,28 +4724,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -4754,18 +4754,18 @@
         <v>2.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W30" t="n">
         <v>1.5</v>
@@ -4774,16 +4774,16 @@
         <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>15</v>
@@ -4792,16 +4792,16 @@
         <v>41</v>
       </c>
       <c r="AE30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4816,16 +4816,16 @@
         <v>6.5</v>
       </c>
       <c r="AM30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AN30" t="n">
         <v>9</v>
       </c>
-      <c r="AN30" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ30" t="n">
         <v>34</v>
@@ -5296,22 +5296,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5326,10 +5326,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5352,10 +5352,10 @@
         <v>2.2</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
         <v>9</v>
@@ -5376,7 +5376,7 @@
         <v>6.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
       <c r="AN34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO34" t="n">
         <v>34</v>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
@@ -5865,54 +5865,54 @@
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K38" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L38" t="n">
         <v>2.88</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB38" t="n">
         <v>17</v>
@@ -5924,31 +5924,31 @@
         <v>41</v>
       </c>
       <c r="AE38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH38" t="n">
         <v>6.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="n">
         <v>501</v>
       </c>
       <c r="AL38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN38" t="n">
         <v>9.5</v>
@@ -5957,16 +5957,16 @@
         <v>19</v>
       </c>
       <c r="AP38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="39">
@@ -6007,7 +6007,7 @@
         <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.75</v>
@@ -6016,13 +6016,13 @@
         <v>1.83</v>
       </c>
       <c r="L39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N39" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.57</v>
@@ -6031,10 +6031,10 @@
         <v>2.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6045,16 +6045,16 @@
         <v>1.13</v>
       </c>
       <c r="W39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
@@ -6075,7 +6075,7 @@
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH39" t="n">
         <v>6</v>
@@ -6090,13 +6090,13 @@
         <v>101</v>
       </c>
       <c r="AL39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN39" t="n">
         <v>12</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>11</v>
       </c>
       <c r="AO39" t="n">
         <v>29</v>
@@ -6146,22 +6146,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -6170,16 +6170,16 @@
         <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -6196,34 +6196,34 @@
         <v>2.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA40" t="n">
         <v>6</v>
       </c>
       <c r="AB40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="n">
         <v>13</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG40" t="n">
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI40" t="n">
         <v>23</v>
@@ -6235,19 +6235,19 @@
         <v>501</v>
       </c>
       <c r="AL40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ40" t="n">
         <v>51</v>
@@ -6287,22 +6287,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
@@ -6311,24 +6311,24 @@
         <v>9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V41" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W41" t="n">
         <v>1.44</v>
@@ -6349,19 +6349,19 @@
         <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD41" t="n">
         <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF41" t="n">
         <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH41" t="n">
         <v>6.5</v>
@@ -6373,13 +6373,13 @@
         <v>51</v>
       </c>
       <c r="AK41" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="n">
         <v>11</v>
       </c>
       <c r="AM41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN41" t="n">
         <v>15</v>
@@ -6827,44 +6827,44 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="J45" t="n">
         <v>2.37</v>
       </c>
       <c r="K45" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
         <v>2.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R45" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6873,37 +6873,37 @@
         <v>2.55</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC45" t="n">
         <v>8.25</v>
       </c>
       <c r="AD45" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF45" t="n">
         <v>28</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ45" t="n">
         <v>75</v>
@@ -6912,19 +6912,19 @@
         <v>600</v>
       </c>
       <c r="AL45" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO45" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ45" t="n">
         <v>45</v>
@@ -7246,16 +7246,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>2.9</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
@@ -7264,10 +7264,10 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -7302,13 +7302,13 @@
         <v>1.62</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB48" t="n">
         <v>10</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD48" t="n">
         <v>23</v>
@@ -7353,10 +7353,10 @@
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="49">
@@ -7391,40 +7391,40 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H49" t="n">
         <v>5.25</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R49" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -7433,10 +7433,10 @@
         <v>1.85</v>
       </c>
       <c r="U49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W49" t="n">
         <v>1.3</v>
@@ -7457,10 +7457,10 @@
         <v>7</v>
       </c>
       <c r="AC49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD49" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>9</v>
       </c>
       <c r="AE49" t="n">
         <v>11</v>
@@ -7478,19 +7478,19 @@
         <v>21</v>
       </c>
       <c r="AJ49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK49" t="n">
         <v>301</v>
       </c>
       <c r="AL49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM49" t="n">
         <v>41</v>
       </c>
       <c r="AN49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO49" t="n">
         <v>81</v>
@@ -7536,22 +7536,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="n">
         <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7560,24 +7560,24 @@
         <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R50" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V50" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W50" t="n">
         <v>1.4</v>
@@ -7586,31 +7586,31 @@
         <v>2.75</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG50" t="n">
         <v>11</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>10</v>
       </c>
       <c r="AH50" t="n">
         <v>6.5</v>
@@ -7622,22 +7622,22 @@
         <v>51</v>
       </c>
       <c r="AK50" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN50" t="n">
         <v>11</v>
       </c>
-      <c r="AN50" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AO50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP50" t="n">
         <v>23</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>19</v>
       </c>
       <c r="AQ50" t="n">
         <v>29</v>
@@ -7677,10 +7677,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I51" t="n">
         <v>5.5</v>
@@ -7689,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L51" t="n">
         <v>5</v>
@@ -7701,16 +7701,16 @@
         <v>19</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R51" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S51" t="n">
         <v>1.85</v>
@@ -7719,28 +7719,28 @@
         <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AA51" t="n">
         <v>11</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC51" t="n">
         <v>8.5</v>
@@ -7755,7 +7755,7 @@
         <v>19</v>
       </c>
       <c r="AG51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH51" t="n">
         <v>9</v>
@@ -7764,19 +7764,19 @@
         <v>13</v>
       </c>
       <c r="AJ51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK51" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM51" t="n">
         <v>34</v>
       </c>
       <c r="AN51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO51" t="n">
         <v>51</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J52" t="n">
         <v>2.88</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.4</v>
       </c>
       <c r="L52" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7858,16 +7858,16 @@
         <v>2.4</v>
       </c>
       <c r="S52" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V52" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W52" t="n">
         <v>1.29</v>
@@ -7885,16 +7885,16 @@
         <v>12</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
         <v>9.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF52" t="n">
         <v>21</v>
@@ -7915,10 +7915,10 @@
         <v>101</v>
       </c>
       <c r="AL52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN52" t="n">
         <v>11</v>
@@ -7927,10 +7927,10 @@
         <v>29</v>
       </c>
       <c r="AP52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ52" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>23</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7967,22 +7967,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -7991,16 +7991,16 @@
         <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R53" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S53" t="n">
         <v>2.05</v>
@@ -8009,25 +8009,25 @@
         <v>1.8</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AA53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
         <v>13</v>
@@ -8036,37 +8036,37 @@
         <v>9.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE53" t="n">
         <v>17</v>
       </c>
       <c r="AF53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
       </c>
       <c r="AK53" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN53" t="n">
         <v>11</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>10</v>
       </c>
       <c r="AO53" t="n">
         <v>29</v>
@@ -8278,7 +8278,7 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -8402,28 +8402,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
         <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
         <v>1.3</v>
@@ -8462,10 +8462,10 @@
         <v>1.73</v>
       </c>
       <c r="AA56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
@@ -8486,25 +8486,25 @@
         <v>7</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK56" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL56" t="n">
         <v>13</v>
       </c>
       <c r="AM56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP56" t="n">
         <v>41</v>
@@ -8551,16 +8551,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
         <v>2.1</v>
@@ -8644,19 +8644,19 @@
         <v>201</v>
       </c>
       <c r="AL57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM57" t="n">
         <v>11</v>
       </c>
       <c r="AN57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO57" t="n">
         <v>21</v>
       </c>
       <c r="AP57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ57" t="n">
         <v>26</v>
@@ -8844,63 +8844,63 @@
         <v>2.2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L59" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P59" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="V59" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="W59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X59" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="n">
         <v>9.5</v>
@@ -8909,49 +8909,49 @@
         <v>21</v>
       </c>
       <c r="AE59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF59" t="n">
         <v>34</v>
       </c>
       <c r="AG59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH59" t="n">
         <v>6</v>
       </c>
       <c r="AI59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ59" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK59" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AL59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM59" t="n">
         <v>17</v>
       </c>
       <c r="AN59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO59" t="n">
         <v>41</v>
       </c>
       <c r="AP59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ59" t="n">
         <v>41</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="60">
@@ -9127,22 +9127,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
         <v>4.2</v>
       </c>
       <c r="I61" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K61" t="n">
         <v>2.38</v>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
@@ -9195,7 +9195,7 @@
         <v>11</v>
       </c>
       <c r="AE61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF61" t="n">
         <v>23</v>
@@ -9277,13 +9277,13 @@
         <v>3.1</v>
       </c>
       <c r="J62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K62" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L62" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
@@ -9292,16 +9292,16 @@
         <v>7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P62" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R62" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -9318,10 +9318,10 @@
         <v>2.25</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA62" t="n">
         <v>6.5</v>
@@ -9342,13 +9342,13 @@
         <v>41</v>
       </c>
       <c r="AG62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH62" t="n">
         <v>6</v>
       </c>
       <c r="AI62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="n">
         <v>67</v>
@@ -9375,10 +9375,10 @@
         <v>41</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="63">
@@ -9840,40 +9840,40 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J66" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K66" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L66" t="n">
         <v>6.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P66" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R66" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -9884,16 +9884,16 @@
         <v>1.14</v>
       </c>
       <c r="W66" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA66" t="n">
         <v>4.75</v>
@@ -9902,10 +9902,10 @@
         <v>6.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE66" t="n">
         <v>19</v>
@@ -9920,7 +9920,7 @@
         <v>7</v>
       </c>
       <c r="AI66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ66" t="n">
         <v>101</v>
@@ -9947,10 +9947,10 @@
         <v>67</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="67">

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1565,19 +1565,19 @@
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
         <v>2.88</v>
@@ -1586,7 +1586,7 @@
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
         <v>1.19</v>
@@ -1598,10 +1598,10 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y8" t="n">
         <v>2.25</v>
@@ -1610,13 +1610,13 @@
         <v>1.57</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>34</v>
@@ -1625,7 +1625,7 @@
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
@@ -1652,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1717,10 +1717,10 @@
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -1878,16 +1878,16 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y10" t="n">
         <v>2.5</v>
@@ -2560,82 +2560,82 @@
         <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
@@ -2644,19 +2644,19 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>34</v>
@@ -2668,10 +2668,10 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="16">
@@ -3016,7 +3016,7 @@
         <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
         <v>4.5</v>
@@ -3028,16 +3028,16 @@
         <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
         <v>4.1</v>
@@ -3046,31 +3046,31 @@
         <v>1.22</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>19</v>
@@ -3082,13 +3082,13 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>67</v>
@@ -3097,7 +3097,7 @@
         <v>101</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
@@ -3112,13 +3112,13 @@
         <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3721,13 +3721,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J23" t="n">
         <v>5.5</v>
@@ -3736,7 +3736,7 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3759,10 +3759,10 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -3771,10 +3771,10 @@
         <v>2.63</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA23" t="n">
         <v>11</v>
@@ -3783,7 +3783,7 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
         <v>51</v>
@@ -3792,16 +3792,16 @@
         <v>41</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
         <v>7.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>67</v>
@@ -3813,19 +3813,19 @@
         <v>6</v>
       </c>
       <c r="AM23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -8275,22 +8275,22 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -8343,7 +8343,7 @@
         <v>67</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AL55" t="n">
         <v>7.5</v>
@@ -8364,10 +8364,10 @@
         <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="56">
@@ -8551,121 +8551,121 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K57" t="n">
         <v>2.25</v>
       </c>
-      <c r="J57" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L57" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O57" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R57" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="S57" t="n">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X57" t="n">
         <v>3.25</v>
       </c>
-      <c r="V57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X57" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y57" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="Z57" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AA57" t="n">
         <v>11</v>
       </c>
       <c r="AB57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI57" t="n">
         <v>12</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>13</v>
       </c>
       <c r="AJ57" t="n">
         <v>41</v>
       </c>
       <c r="AK57" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AL57" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AM57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP57" t="n">
         <v>19</v>
       </c>
       <c r="AQ57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="58">
@@ -10976,22 +10976,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K74" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L74" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M74" t="n">
         <v>1.13</v>
@@ -11000,10 +11000,10 @@
         <v>6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P74" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q74" t="n">
         <v>3.1</v>
@@ -11014,10 +11014,10 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W74" t="n">
         <v>1.67</v>
@@ -11032,19 +11032,19 @@
         <v>1.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC74" t="n">
         <v>11</v>
       </c>
       <c r="AD74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF74" t="n">
         <v>41</v>
@@ -11065,10 +11065,10 @@
         <v>101</v>
       </c>
       <c r="AL74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN74" t="n">
         <v>13</v>
@@ -11142,33 +11142,33 @@
         <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O75" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P75" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R75" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W75" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X75" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y75" t="n">
         <v>1.83</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -1565,7 +1565,7 @@
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
@@ -1586,16 +1586,16 @@
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
         <v>1.67</v>
@@ -1613,7 +1613,7 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1625,7 +1625,7 @@
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
@@ -1646,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
@@ -1791,10 +1791,10 @@
         <v>8</v>
       </c>
       <c r="AM9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN9" t="n">
         <v>17</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>41</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
         <v>3.75</v>
@@ -2587,16 +2587,16 @@
         <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="U15" t="n">
         <v>3.75</v>
@@ -2611,16 +2611,16 @@
         <v>2.63</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA15" t="n">
         <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>9.5</v>
@@ -2635,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
@@ -2647,10 +2647,10 @@
         <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM15" t="n">
         <v>15</v>
@@ -2668,10 +2668,10 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -3004,22 +3004,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
@@ -3028,67 +3028,67 @@
         <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U18" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>67</v>
@@ -3097,28 +3097,28 @@
         <v>101</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
       </c>
       <c r="AR18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS18" t="n">
         <v>1.85</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3727,7 +3727,7 @@
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
         <v>5.5</v>
@@ -3751,18 +3751,18 @@
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -6830,104 +6830,104 @@
         <v>1.78</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="J45" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="K45" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P45" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
       </c>
       <c r="X45" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC45" t="n">
         <v>8</v>
       </c>
-      <c r="AC45" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AD45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
         <v>14.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
         <v>9.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI45" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK45" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL45" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AM45" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN45" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP45" t="n">
         <v>40</v>
       </c>
       <c r="AQ45" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -6964,36 +6964,36 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="K46" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="L46" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
         <v>3.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7010,31 +7010,31 @@
         <v>2.55</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD46" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
         <v>25</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
         <v>7.5</v>
@@ -7049,22 +7049,22 @@
         <v>600</v>
       </c>
       <c r="AL46" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN46" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP46" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AQ46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -8275,10 +8275,10 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
         <v>1.4</v>
@@ -8572,7 +8572,7 @@
         <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O57" t="n">
         <v>1.22</v>
@@ -8629,7 +8629,7 @@
         <v>26</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
         <v>6.5</v>
@@ -8641,7 +8641,7 @@
         <v>41</v>
       </c>
       <c r="AK57" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="n">
         <v>10</v>
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H75" t="n">
         <v>3.3</v>
@@ -11130,7 +11130,7 @@
         <v>2.3</v>
       </c>
       <c r="J75" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K75" t="n">
         <v>2.05</v>
@@ -11139,10 +11139,10 @@
         <v>3.1</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
         <v>1.36</v>
@@ -11165,10 +11165,10 @@
         <v>1.22</v>
       </c>
       <c r="W75" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X75" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y75" t="n">
         <v>1.83</v>
@@ -11177,7 +11177,7 @@
         <v>1.83</v>
       </c>
       <c r="AA75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB75" t="n">
         <v>13</v>
@@ -11189,28 +11189,28 @@
         <v>29</v>
       </c>
       <c r="AE75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF75" t="n">
         <v>34</v>
       </c>
       <c r="AG75" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH75" t="n">
         <v>6.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ75" t="n">
         <v>51</v>
       </c>
       <c r="AK75" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM75" t="n">
         <v>11</v>
@@ -11219,13 +11219,13 @@
         <v>9.5</v>
       </c>
       <c r="AO75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP75" t="n">
         <v>21</v>
       </c>
       <c r="AQ75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11262,44 +11262,44 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I76" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J76" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="K76" t="n">
         <v>2.05</v>
       </c>
       <c r="L76" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P76" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R76" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="V76" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W76" t="n">
         <v>1.39</v>
@@ -11308,58 +11308,58 @@
         <v>2.55</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AA76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC76" t="n">
         <v>8.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE76" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG76" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH76" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI76" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ76" t="n">
         <v>65</v>
       </c>
       <c r="AK76" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL76" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN76" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO76" t="n">
         <v>50</v>
       </c>
       <c r="AP76" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ76" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS76"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6540,7 +6540,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>lKJN4iVj</t>
+          <t>2a1ASfNc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6560,36 +6560,40 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PDRM FC</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Negeri Sembilan</t>
+          <t>Kuala Lumpur City</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="J43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K43" t="n">
         <v>2.12</v>
       </c>
-      <c r="K43" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L43" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.1</v>
+      </c>
       <c r="Q43" t="n">
         <v>1.65</v>
       </c>
@@ -6598,53 +6602,65 @@
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2.12</v>
+      </c>
       <c r="AA43" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AB43" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="AC43" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE43" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE43" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AF43" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL43" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM43" t="n">
         <v>21</v>
       </c>
       <c r="AN43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO43" t="n">
         <v>55</v>
@@ -6653,7 +6669,7 @@
         <v>32</v>
       </c>
       <c r="AQ43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6661,7 +6677,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2a1ASfNc</t>
+          <t>GjuPT6KP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6671,35 +6687,35 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kuala Lumpur City</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>1.72</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="K44" t="n">
         <v>2.12</v>
@@ -6710,87 +6726,87 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="P44" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="V44" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X44" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AD44" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AF44" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH44" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AI44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP44" t="n">
         <v>40</v>
       </c>
-      <c r="AK44" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>32</v>
-      </c>
       <c r="AQ44" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6798,7 +6814,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GjuPT6KP</t>
+          <t>r78CK2sC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6818,116 +6834,116 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="K45" t="n">
-        <v>2.07</v>
+        <v>2.34</v>
       </c>
       <c r="L45" t="n">
-        <v>4.55</v>
+        <v>5.8</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="R45" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="V45" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W45" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X45" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD45" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE45" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP45" t="n">
         <v>65</v>
       </c>
-      <c r="AK45" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>40</v>
-      </c>
       <c r="AQ45" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -6935,7 +6951,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>r78CK2sC</t>
+          <t>KhqfNCWo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6945,134 +6961,142 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Zacatecas Mineros</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
         <v>6</v>
       </c>
-      <c r="J46" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8</v>
+      </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="X46" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF46" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AH46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI46" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AJ46" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="AL46" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AM46" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AN46" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO46" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AP46" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AQ46" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KhqfNCWo</t>
+          <t>SIn2Lj1b</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7082,7 +7106,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -7092,132 +7116,132 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J47" t="n">
         <v>3.25</v>
       </c>
-      <c r="I47" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P47" t="n">
         <v>2.5</v>
       </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>6</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N47" t="n">
-        <v>8</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q47" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R47" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W47" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X47" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE47" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF47" t="n">
         <v>41</v>
       </c>
       <c r="AG47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK47" t="n">
         <v>101</v>
       </c>
       <c r="AL47" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM47" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AN47" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AO47" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AP47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ47" t="n">
         <v>41</v>
       </c>
-      <c r="AQ47" t="n">
-        <v>51</v>
-      </c>
       <c r="AR47" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SIn2Lj1b</t>
+          <t>2icu72b2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -7232,137 +7256,137 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N48" t="n">
+        <v>17</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R48" t="n">
         <v>2.3</v>
       </c>
-      <c r="H48" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y48" t="n">
         <v>1.91</v>
       </c>
-      <c r="L48" t="n">
-        <v>4</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N48" t="n">
+      <c r="Z48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB48" t="n">
         <v>7</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB48" t="n">
+      <c r="AC48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH48" t="n">
         <v>10</v>
       </c>
-      <c r="AC48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>6</v>
-      </c>
       <c r="AI48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ48" t="n">
         <v>67</v>
       </c>
       <c r="AK48" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AL48" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AM48" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AN48" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AO48" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AP48" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AQ48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>1.83</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2icu72b2</t>
+          <t>AgI0Ep6S</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7382,124 +7406,120 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.33</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="J49" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="R49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z49" t="n">
         <v>2</v>
       </c>
-      <c r="T49" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA49" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL49" t="n">
         <v>9</v>
       </c>
-      <c r="AD49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="AM49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN49" t="n">
         <v>11</v>
       </c>
-      <c r="AF49" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN49" t="n">
+      <c r="AO49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP49" t="n">
         <v>23</v>
       </c>
-      <c r="AO49" t="n">
-        <v>81</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>51</v>
-      </c>
       <c r="AQ49" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7507,7 +7527,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AgI0Ep6S</t>
+          <t>GCGpIS63</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7527,120 +7547,124 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="L50" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
+        <v>19</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P50" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA50" t="n">
         <v>11</v>
       </c>
-      <c r="O50" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X50" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA50" t="n">
+      <c r="AB50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC50" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AD50" t="n">
         <v>12</v>
       </c>
-      <c r="AC50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD50" t="n">
+      <c r="AE50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL50" t="n">
         <v>23</v>
       </c>
-      <c r="AE50" t="n">
+      <c r="AM50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN50" t="n">
         <v>19</v>
       </c>
-      <c r="AF50" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ50" t="n">
+      <c r="AO50" t="n">
         <v>51</v>
       </c>
-      <c r="AK50" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>29</v>
-      </c>
       <c r="AP50" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AQ50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7648,7 +7672,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GCGpIS63</t>
+          <t>vHhInGSg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7668,100 +7692,100 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="H51" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N51" t="n">
+        <v>17</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P51" t="n">
         <v>5.5</v>
       </c>
-      <c r="J51" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="Q51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z51" t="n">
         <v>2.63</v>
       </c>
-      <c r="L51" t="n">
-        <v>5</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N51" t="n">
+      <c r="AA51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG51" t="n">
         <v>19</v>
       </c>
-      <c r="O51" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P51" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2</v>
-      </c>
-      <c r="U51" t="n">
-        <v>2</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA51" t="n">
+      <c r="AH51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI51" t="n">
         <v>11</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>13</v>
       </c>
       <c r="AJ51" t="n">
         <v>34</v>
@@ -7770,22 +7794,22 @@
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AM51" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AN51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP51" t="n">
         <v>19</v>
       </c>
-      <c r="AO51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ51" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
@@ -7793,7 +7817,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>vHhInGSg</t>
+          <t>UwaX8OTk</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7813,85 +7837,85 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J52" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P52" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y52" t="n">
         <v>1.53</v>
       </c>
-      <c r="R52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Z52" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AA52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
         <v>9.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE52" t="n">
         <v>17</v>
@@ -7900,22 +7924,22 @@
         <v>21</v>
       </c>
       <c r="AG52" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
         <v>7.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK52" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM52" t="n">
         <v>17</v>
@@ -7927,10 +7951,10 @@
         <v>29</v>
       </c>
       <c r="AP52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7938,7 +7962,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UwaX8OTk</t>
+          <t>rPuUGmkD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7948,142 +7972,142 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Atl. Tembetary</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>2.88</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
         <v>2.75</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L53" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="P53" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R53" t="n">
         <v>1.62</v>
       </c>
-      <c r="R53" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.8</v>
-      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X53" t="n">
         <v>2.5</v>
       </c>
-      <c r="V53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X53" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Y53" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="AA53" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE53" t="n">
         <v>17</v>
       </c>
       <c r="AF53" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AG53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN53" t="n">
         <v>15</v>
       </c>
-      <c r="AH53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ53" t="n">
+      <c r="AO53" t="n">
         <v>41</v>
       </c>
-      <c r="AK53" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>29</v>
-      </c>
       <c r="AP53" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ53" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>rPuUGmkD</t>
+          <t>OKIGvisK</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8093,7 +8117,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -8103,31 +8127,31 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Atl. Tembetary</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K54" t="n">
         <v>1.95</v>
       </c>
-      <c r="H54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L54" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M54" t="n">
         <v>1.08</v>
@@ -8156,10 +8180,10 @@
         <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X54" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y54" t="n">
         <v>2</v>
@@ -8168,67 +8192,67 @@
         <v>1.73</v>
       </c>
       <c r="AA54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE54" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI54" t="n">
         <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK54" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="AL54" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AN54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO54" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP54" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ54" t="n">
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OKIGvisK</t>
+          <t>MqI7cc1f</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8243,137 +8267,141 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
       </c>
       <c r="K55" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V55" t="n">
         <v>1.4</v>
       </c>
-      <c r="P55" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q55" t="n">
+      <c r="W55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z55" t="n">
         <v>2.25</v>
       </c>
-      <c r="R55" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X55" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AA55" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC55" t="n">
         <v>11</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AD55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL55" t="n">
         <v>10</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>7.5</v>
       </c>
       <c r="AM55" t="n">
         <v>13</v>
       </c>
       <c r="AN55" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP55" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ55" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.03</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ra6GeyW6</t>
+          <t>WKv9MdaJ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8383,41 +8411,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="H56" t="n">
         <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
@@ -8432,17 +8460,13 @@
         <v>3.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.44</v>
-      </c>
+        <v>1.83</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
         <v>3.5</v>
       </c>
@@ -8450,28 +8474,28 @@
         <v>1.29</v>
       </c>
       <c r="W56" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="X56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AA56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -8480,49 +8504,45 @@
         <v>29</v>
       </c>
       <c r="AG56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH56" t="n">
         <v>7</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ56" t="n">
         <v>51</v>
       </c>
       <c r="AK56" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN56" t="n">
         <v>13</v>
       </c>
-      <c r="AM56" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>17</v>
-      </c>
       <c r="AO56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ56" t="n">
         <v>41</v>
       </c>
-      <c r="AQ56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MqI7cc1f</t>
+          <t>Y92sJrAO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8532,146 +8552,142 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="J57" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
+        <v>9</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN57" t="n">
         <v>12</v>
       </c>
-      <c r="O57" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U57" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD57" t="n">
+      <c r="AO57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP57" t="n">
         <v>29</v>
       </c>
-      <c r="AE57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ57" t="n">
+      <c r="AQ57" t="n">
         <v>41</v>
       </c>
-      <c r="AK57" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>23</v>
-      </c>
       <c r="AR57" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="AS57" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WKv9MdaJ</t>
+          <t>QeuYll1M</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8686,125 +8702,125 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.91</v>
+        <v>5.25</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>3.9</v>
+        <v>1.62</v>
       </c>
       <c r="J58" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L58" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W58" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="X58" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AA58" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AD58" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="AE58" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AF58" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AH58" t="n">
         <v>7</v>
       </c>
       <c r="AI58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP58" t="n">
         <v>15</v>
       </c>
-      <c r="AJ58" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP58" t="n">
+      <c r="AQ58" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>41</v>
       </c>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
@@ -8812,7 +8828,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Y92sJrAO</t>
+          <t>6DLmqJU0</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8822,142 +8838,138 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I59" t="n">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K59" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N59" t="n">
+        <v>13</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P59" t="n">
         <v>4</v>
       </c>
-      <c r="M59" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q59" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="R59" t="n">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V59" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W59" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X59" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF59" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AG59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH59" t="n">
         <v>8</v>
       </c>
-      <c r="AH59" t="n">
-        <v>6</v>
-      </c>
       <c r="AI59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ59" t="n">
         <v>51</v>
       </c>
       <c r="AK59" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL59" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AM59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN59" t="n">
         <v>17</v>
       </c>
-      <c r="AN59" t="n">
-        <v>12</v>
-      </c>
       <c r="AO59" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP59" t="n">
         <v>41</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>29</v>
       </c>
       <c r="AQ59" t="n">
         <v>41</v>
       </c>
-      <c r="AR59" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>QeuYll1M</t>
+          <t>QDf8kal4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8967,138 +8979,142 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J60" t="n">
         <v>3.4</v>
       </c>
-      <c r="I60" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6</v>
-      </c>
       <c r="K60" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L60" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O60" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P60" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R60" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W60" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="X60" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN60" t="n">
         <v>12</v>
       </c>
-      <c r="AB60" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>9</v>
-      </c>
       <c r="AO60" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AP60" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6DLmqJU0</t>
+          <t>WQuUevml</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -9108,130 +9124,130 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.57</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="J61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K61" t="n">
         <v>2.1</v>
       </c>
-      <c r="K61" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L61" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="O61" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="R61" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X61" t="n">
         <v>2.75</v>
       </c>
-      <c r="V61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W61" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X61" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y61" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD61" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AE61" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AF61" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ61" t="n">
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AL61" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AM61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>29</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>41</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9239,7 +9255,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>QDf8kal4</t>
+          <t>td1k3MfE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -9249,118 +9265,122 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="H62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I62" t="n">
         <v>3</v>
       </c>
-      <c r="I62" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L62" t="n">
         <v>3.4</v>
       </c>
-      <c r="K62" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4</v>
-      </c>
       <c r="M62" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N62" t="n">
+        <v>10</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH62" t="n">
         <v>7</v>
       </c>
-      <c r="O62" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
-      <c r="V62" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X62" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>6</v>
-      </c>
       <c r="AI62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM62" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>501</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>13</v>
       </c>
       <c r="AN62" t="n">
         <v>12</v>
@@ -9369,22 +9389,18 @@
         <v>34</v>
       </c>
       <c r="AP62" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>1.9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WQuUevml</t>
+          <t>j7YdcW6e</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -9394,7 +9410,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -9404,120 +9420,120 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>1.17</v>
       </c>
       <c r="H63" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="J63" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="K63" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L63" t="n">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="M63" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="O63" t="n">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="R63" t="n">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="V63" t="n">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="W63" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="X63" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z63" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA63" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH63" t="n">
         <v>17</v>
       </c>
-      <c r="AC63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE63" t="n">
+      <c r="AI63" t="n">
         <v>26</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>15</v>
       </c>
       <c r="AJ63" t="n">
         <v>51</v>
       </c>
       <c r="AK63" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AL63" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AM63" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AN63" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AO63" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="AP63" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AQ63" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9525,7 +9541,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>td1k3MfE</t>
+          <t>j1XSj4lU</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9535,142 +9551,142 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="H64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K64" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L64" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O64" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.75</v>
-      </c>
+        <v>1.48</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y64" t="n">
         <v>2.5</v>
       </c>
-      <c r="V64" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Z64" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="AB64" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AC64" t="n">
         <v>9.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AG64" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AH64" t="n">
         <v>7</v>
       </c>
       <c r="AI64" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ64" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="n">
         <v>101</v>
       </c>
       <c r="AL64" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AM64" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AN64" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AO64" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AP64" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AQ64" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>j7YdcW6e</t>
+          <t>GSv4YoDr</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9680,130 +9696,130 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.17</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
-        <v>8</v>
+        <v>3.35</v>
       </c>
       <c r="I65" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.4</v>
+        <v>4.05</v>
       </c>
       <c r="K65" t="n">
-        <v>3.4</v>
+        <v>2.07</v>
       </c>
       <c r="L65" t="n">
-        <v>10</v>
+        <v>2.65</v>
       </c>
       <c r="M65" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N65" t="n">
-        <v>17</v>
+        <v>7.1</v>
       </c>
       <c r="O65" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="P65" t="n">
-        <v>7.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="R65" t="n">
-        <v>3.75</v>
+        <v>1.78</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="V65" t="n">
-        <v>2.1</v>
+        <v>1.31</v>
       </c>
       <c r="W65" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="X65" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA65" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AB65" t="n">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD65" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN65" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE65" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>29</v>
-      </c>
       <c r="AO65" t="n">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="AP65" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="AQ65" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9811,7 +9827,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>j1XSj4lU</t>
+          <t>Cjr1FR7d</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9821,142 +9837,138 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>5.75</v>
+        <v>3.15</v>
       </c>
       <c r="J66" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="K66" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L66" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="O66" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="P66" t="n">
-        <v>2.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="R66" t="n">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>5.5</v>
+        <v>2.37</v>
       </c>
       <c r="V66" t="n">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="W66" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="X66" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="AA66" t="n">
-        <v>4.75</v>
+        <v>10.75</v>
       </c>
       <c r="AB66" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE66" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF66" t="n">
         <v>19</v>
       </c>
-      <c r="AF66" t="n">
-        <v>41</v>
-      </c>
       <c r="AG66" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="AH66" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI66" t="n">
-        <v>23</v>
+        <v>11.25</v>
       </c>
       <c r="AJ66" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AK66" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AL66" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AM66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ66" t="n">
         <v>26</v>
       </c>
-      <c r="AN66" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GSv4YoDr</t>
+          <t>CfYCWPse</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9966,7 +9978,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -9976,120 +9988,120 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>2.37</v>
       </c>
       <c r="H67" t="n">
         <v>3.35</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="J67" t="n">
-        <v>4.05</v>
+        <v>2.85</v>
       </c>
       <c r="K67" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="L67" t="n">
-        <v>2.65</v>
+        <v>3.35</v>
       </c>
       <c r="M67" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="O67" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P67" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="R67" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="V67" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="W67" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="X67" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.93</v>
+        <v>2.37</v>
       </c>
       <c r="AA67" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AB67" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD67" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AE67" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AF67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>37</v>
       </c>
-      <c r="AG67" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>65</v>
-      </c>
       <c r="AK67" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AL67" t="n">
-        <v>7.3</v>
+        <v>10.75</v>
       </c>
       <c r="AM67" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="AN67" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AO67" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="AP67" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AQ67" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10097,7 +10109,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cjr1FR7d</t>
+          <t>nByrmKt4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -10107,130 +10119,134 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N68" t="n">
+        <v>15</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z68" t="n">
         <v>2.1</v>
       </c>
-      <c r="H68" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N68" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P68" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R68" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V68" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W68" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X68" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>2.42</v>
-      </c>
       <c r="AA68" t="n">
-        <v>10.75</v>
+        <v>17</v>
       </c>
       <c r="AB68" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="n">
         <v>13</v>
       </c>
-      <c r="AC68" t="n">
+      <c r="AH68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL68" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD68" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AM68" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AN68" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AP68" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AQ68" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10238,7 +10254,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CfYCWPse</t>
+          <t>dESx56Hq</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -10248,85 +10264,85 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="G69" t="n">
         <v>2.37</v>
       </c>
       <c r="H69" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I69" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="J69" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="K69" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="L69" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="O69" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P69" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R69" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="V69" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W69" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="X69" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="AA69" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC69" t="n">
         <v>9</v>
@@ -10335,43 +10351,43 @@
         <v>27</v>
       </c>
       <c r="AE69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG69" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AH69" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AI69" t="n">
         <v>11</v>
       </c>
       <c r="AJ69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="n">
         <v>250</v>
       </c>
       <c r="AL69" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM69" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN69" t="n">
         <v>10</v>
       </c>
       <c r="AO69" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10379,7 +10395,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>nByrmKt4</t>
+          <t>xOzo3pnd</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -10389,134 +10405,130 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Dibba Al Hisn</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>2.02</v>
       </c>
       <c r="H70" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I70" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="K70" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L70" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N70" t="n">
+        <v>8</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE70" t="n">
         <v>15</v>
       </c>
-      <c r="O70" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U70" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W70" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X70" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB70" t="n">
+      <c r="AF70" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>29</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>21</v>
       </c>
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
@@ -10524,7 +10536,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dESx56Hq</t>
+          <t>UHNWQmv3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -10534,7 +10546,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -10544,120 +10556,120 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K71" t="n">
         <v>2.37</v>
       </c>
-      <c r="H71" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2.07</v>
-      </c>
       <c r="L71" t="n">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P71" t="n">
-        <v>3.65</v>
+        <v>4.35</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="V71" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="W71" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="X71" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG71" t="n">
         <v>9</v>
       </c>
-      <c r="AD71" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG71" t="n">
+      <c r="AH71" t="n">
         <v>7.7</v>
       </c>
-      <c r="AH71" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AI71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ71" t="n">
         <v>40</v>
       </c>
       <c r="AK71" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL71" t="n">
         <v>11</v>
       </c>
       <c r="AM71" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AN71" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AO71" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AP71" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10665,7 +10677,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>xOzo3pnd</t>
+          <t>OOYxoj8t</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10675,138 +10687,142 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Dibba Al Hisn</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K72" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L72" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O72" t="n">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="P72" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R72" t="n">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>2.67</v>
+        <v>7</v>
       </c>
       <c r="V72" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="W72" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="X72" t="n">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>2.18</v>
+        <v>1.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>8.75</v>
+        <v>5.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD72" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE72" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF72" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AJ72" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AL72" t="n">
-        <v>11.75</v>
+        <v>6.5</v>
       </c>
       <c r="AM72" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AN72" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AO72" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AP72" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ72" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>UHNWQmv3</t>
+          <t>h2ozNwMj</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10816,130 +10832,130 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="H73" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K73" t="n">
         <v>2.05</v>
       </c>
-      <c r="J73" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.37</v>
-      </c>
       <c r="L73" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="M73" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N73" t="n">
         <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="P73" t="n">
-        <v>4.35</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="W73" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="X73" t="n">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="AA73" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AB73" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AC73" t="n">
         <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AE73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF73" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AG73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ73" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AK73" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="AL73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM73" t="n">
         <v>11</v>
       </c>
-      <c r="AM73" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AN73" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP73" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AQ73" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -10947,7 +10963,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>OOYxoj8t</t>
+          <t>bLyQK68M</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10957,415 +10973,129 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Universidad Central</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I74" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J74" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K74" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N74" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="P74" t="n">
-        <v>2.1</v>
+        <v>2.85</v>
       </c>
       <c r="Q74" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="R74" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="V74" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="W74" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="X74" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="Y74" t="n">
-        <v>2.5</v>
+        <v>1.72</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AA74" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB74" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL74" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC74" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AM74" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AN74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO74" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AP74" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AQ74" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>h2ozNwMj</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>14/02/2025</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Liverpool M.</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N75" t="n">
-        <v>9</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P75" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="n">
-        <v>4</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X75" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>bLyQK68M</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>14/02/2025</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Universidad Central</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P76" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V76" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X76" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ76" t="n">
         <v>40</v>
       </c>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
